--- a/legendre_out/DATA/p1/p1IntegrandDataPoints3.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints3.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.99602</v>
       </c>
       <c r="C2" t="n">
-        <v>2.454159411422789e-10</v>
+        <v>9.768197773044828e-12</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.00097</v>
       </c>
       <c r="C3" t="n">
-        <v>3.069163119297576e-10</v>
+        <v>2.676436164454939e-11</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>4.349843270834533e-10</v>
+        <v>4.007281950503774e-11</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.00697</v>
       </c>
       <c r="C5" t="n">
-        <v>6.110018936685458e-10</v>
+        <v>4.155575958126827e-11</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.00909</v>
       </c>
       <c r="C6" t="n">
-        <v>8.148801115111424e-10</v>
+        <v>4.299635046170282e-11</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.01003</v>
       </c>
       <c r="C7" t="n">
-        <v>1.667482106157342e-09</v>
+        <v>4.53814199272473e-11</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>2.742568836352113e-09</v>
+        <v>4.07621227356202e-11</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.01911</v>
       </c>
       <c r="C9" t="n">
-        <v>7.414774130940121e-09</v>
+        <v>4.446691572281698e-11</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.01992</v>
       </c>
       <c r="C10" t="n">
-        <v>1.181773092010344e-08</v>
+        <v>3.298939470157512e-11</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.02504</v>
       </c>
       <c r="C11" t="n">
-        <v>1.263708426008282e-08</v>
+        <v>4.116710088319015e-11</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.02998</v>
       </c>
       <c r="C12" t="n">
-        <v>9.944975999184218e-09</v>
+        <v>3.173954740059162e-11</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.03514</v>
       </c>
       <c r="C13" t="n">
-        <v>5.033080294542043e-09</v>
+        <v>2.807410232836902e-11</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.26996</v>
       </c>
       <c r="C14" t="n">
-        <v>3.830740432978054e-09</v>
+        <v>2.395818017651087e-11</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.29005</v>
       </c>
       <c r="C15" t="n">
-        <v>4.828334877635872e-09</v>
+        <v>1.776109611481993e-11</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>2.118864907633253e-09</v>
+        <v>1.811910233854899e-11</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.29319</v>
       </c>
       <c r="C17" t="n">
-        <v>1.520121985713165e-09</v>
+        <v>1.564093717922639e-11</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.2942</v>
       </c>
       <c r="C18" t="n">
-        <v>8.660688422342459e-10</v>
+        <v>1.598885156898002e-11</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.29515</v>
       </c>
       <c r="C19" t="n">
-        <v>4.408481282952813e-10</v>
+        <v>2.052487584911647e-11</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.29615</v>
       </c>
       <c r="C20" t="n">
-        <v>3.36278940395969e-10</v>
+        <v>1.68279370157011e-11</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>3.365710861598573e-10</v>
+        <v>1.953230316091302e-11</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>3.967323366035301e-10</v>
+        <v>3.707256362434756e-11</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>4.983405897401509e-10</v>
+        <v>4.142315396224513e-11</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.30105</v>
       </c>
       <c r="C24" t="n">
-        <v>4.757929203393355e-10</v>
+        <v>5.472833243459397e-11</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.3031</v>
       </c>
       <c r="C25" t="n">
-        <v>9.990869674401224e-10</v>
+        <v>5.962350385058254e-11</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.30523</v>
       </c>
       <c r="C26" t="n">
-        <v>1.498225874954058e-09</v>
+        <v>5.20541047198349e-11</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>3.534909128129406e-09</v>
+        <v>6.303624650176273e-11</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.3093</v>
       </c>
       <c r="C28" t="n">
-        <v>8.654633587431835e-09</v>
+        <v>5.725869918827154e-11</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.30996</v>
       </c>
       <c r="C29" t="n">
-        <v>8.284467014553917e-09</v>
+        <v>5.953354628282107e-11</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.31117</v>
       </c>
       <c r="C30" t="n">
-        <v>4.381216148987359e-09</v>
+        <v>5.823514513262486e-11</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.31311</v>
       </c>
       <c r="C31" t="n">
-        <v>2.221272421273822e-09</v>
+        <v>5.783299905491198e-11</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.31513</v>
       </c>
       <c r="C32" t="n">
-        <v>1.082370153288936e-09</v>
+        <v>5.443048654873603e-11</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.3172</v>
       </c>
       <c r="C33" t="n">
-        <v>1.087651113810083e-09</v>
+        <v>5.014532804019153e-11</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.31917</v>
       </c>
       <c r="C34" t="n">
-        <v>7.422630254673278e-10</v>
+        <v>5.952859644700701e-11</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>6.404784650349379e-10</v>
+        <v>5.184175983478791e-11</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>4.052979262593093e-10</v>
+        <v>5.002242360413939e-11</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.32521</v>
       </c>
       <c r="C37" t="n">
-        <v>4.541912971227561e-10</v>
+        <v>3.238482493409274e-11</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.32711</v>
       </c>
       <c r="C38" t="n">
-        <v>9.4525153709565e-10</v>
+        <v>3.289453103334858e-11</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.32908</v>
       </c>
       <c r="C39" t="n">
-        <v>5.999082633721905e-10</v>
+        <v>2.694989033785611e-11</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.33012</v>
       </c>
       <c r="C40" t="n">
-        <v>2.602646837554997e-10</v>
+        <v>3.28537713498813e-11</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.33119</v>
       </c>
       <c r="C41" t="n">
-        <v>2.18056349668404e-10</v>
+        <v>4.9331688782614e-11</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.33324</v>
       </c>
       <c r="C42" t="n">
-        <v>1.876794176781891e-10</v>
+        <v>5.011981755823766e-11</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.33515</v>
       </c>
       <c r="C43" t="n">
-        <v>2.263204536272392e-10</v>
+        <v>4.652072120406152e-11</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.34004</v>
       </c>
       <c r="C44" t="n">
-        <v>3.84578806138058e-10</v>
+        <v>4.130677986172384e-11</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.34488</v>
       </c>
       <c r="C45" t="n">
-        <v>8.773963458153221e-10</v>
+        <v>4.285931477133903e-11</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.34998</v>
       </c>
       <c r="C46" t="n">
-        <v>9.752087738038629e-10</v>
+        <v>4.084397326988684e-11</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.37005</v>
       </c>
       <c r="C47" t="n">
-        <v>1.100084807565147e-09</v>
+        <v>2.553077093675963e-11</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.39015</v>
       </c>
       <c r="C48" t="n">
-        <v>1.123594362727725e-09</v>
+        <v>3.157564922748223e-11</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.41003</v>
       </c>
       <c r="C49" t="n">
-        <v>9.862074364499966e-10</v>
+        <v>4.426188833972738e-11</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.42024</v>
       </c>
       <c r="C50" t="n">
-        <v>8.38674174618507e-10</v>
+        <v>6.182242349501941e-11</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.43018</v>
       </c>
       <c r="C51" t="n">
-        <v>6.118555352793227e-10</v>
+        <v>8.199912032175551e-11</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.44004</v>
       </c>
       <c r="C52" t="n">
-        <v>5.418009591091892e-10</v>
+        <v>1.668813798557019e-10</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.44994</v>
       </c>
       <c r="C53" t="n">
-        <v>5.06311118791416e-10</v>
+        <v>2.729768713306397e-10</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.45499</v>
       </c>
       <c r="C54" t="n">
-        <v>5.060888929916492e-10</v>
+        <v>7.359579899802404e-10</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.46012</v>
       </c>
       <c r="C55" t="n">
-        <v>4.84811773761441e-10</v>
+        <v>1.169652248379967e-09</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>4.743034394070771e-10</v>
+        <v>1.243957588047018e-09</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>5.20957130468065e-10</v>
+        <v>9.746208540100797e-10</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.48613</v>
       </c>
       <c r="C58" t="n">
-        <v>6.639214525995381e-10</v>
+        <v>4.910298071467347e-10</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.48819</v>
       </c>
       <c r="C59" t="n">
-        <v>1.011671224773988e-09</v>
+        <v>3.73303297788897e-10</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>1.500836442363662e-09</v>
+        <v>4.700291923690858e-10</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.49222</v>
       </c>
       <c r="C61" t="n">
-        <v>1.920447564965625e-09</v>
+        <v>2.060222844149341e-10</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.49499</v>
       </c>
       <c r="C62" t="n">
-        <v>2.481031946109243e-09</v>
+        <v>1.475787756943975e-10</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>3.031369106415935e-09</v>
+        <v>8.384969319188223e-11</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.51021</v>
       </c>
       <c r="C64" t="n">
-        <v>3.237126671581914e-09</v>
+        <v>4.244025627272276e-11</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.51218</v>
       </c>
       <c r="C65" t="n">
-        <v>3.942862184861879e-09</v>
+        <v>3.233816645676133e-11</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.51508</v>
       </c>
       <c r="C66" t="n">
-        <v>4.699503492044098e-09</v>
+        <v>3.23143799867298e-11</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.52007</v>
       </c>
       <c r="C67" t="n">
-        <v>4.698965701388157e-09</v>
+        <v>3.79854977253888e-11</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.52524</v>
       </c>
       <c r="C68" t="n">
-        <v>5.16870118456039e-09</v>
+        <v>4.757780890348415e-11</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>5.19977316900218e-09</v>
+        <v>4.532046392394383e-11</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.53506</v>
       </c>
       <c r="C70" t="n">
-        <v>5.117493272369474e-09</v>
+        <v>9.486855904099261e-11</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.54024</v>
       </c>
       <c r="C71" t="n">
-        <v>4.983608741383085e-09</v>
+        <v>1.418573542559709e-10</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.5498</v>
       </c>
       <c r="C72" t="n">
-        <v>4.962231520434819e-09</v>
+        <v>3.329324397915563e-10</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.56018</v>
       </c>
       <c r="C73" t="n">
-        <v>4.672087655509638e-09</v>
+        <v>8.10462350615552e-10</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>4.525357450809843e-09</v>
+        <v>7.715398020061239e-10</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>3.609037567856276e-09</v>
+        <v>4.057981446975873e-10</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.59008</v>
       </c>
       <c r="C76" t="n">
-        <v>3.292812958113296e-09</v>
+        <v>2.045986580650779e-10</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.60027</v>
       </c>
       <c r="C77" t="n">
-        <v>2.729662726529358e-09</v>
+        <v>9.913538775116628e-11</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.60999</v>
       </c>
       <c r="C78" t="n">
-        <v>2.058818500757255e-09</v>
+        <v>9.908487574580859e-11</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.62023</v>
       </c>
       <c r="C79" t="n">
-        <v>1.850388661006646e-09</v>
+        <v>6.72381136510417e-11</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.62994</v>
       </c>
       <c r="C80" t="n">
-        <v>1.567224695308594e-09</v>
+        <v>5.770713141063037e-11</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.63517</v>
       </c>
       <c r="C81" t="n">
-        <v>1.479165074931046e-09</v>
+        <v>3.641186099808534e-11</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.482351996269765e-09</v>
+        <v>4.069645207207833e-11</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.64996</v>
       </c>
       <c r="C83" t="n">
-        <v>1.458252684738793e-09</v>
+        <v>8.422920933375557e-11</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.67012</v>
       </c>
       <c r="C84" t="n">
-        <v>1.394352864601776e-09</v>
+        <v>5.286362242913597e-11</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.68015</v>
       </c>
       <c r="C85" t="n">
-        <v>1.391538141550442e-09</v>
+        <v>2.280750087999849e-11</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.68993</v>
       </c>
       <c r="C86" t="n">
-        <v>1.39738099302842e-09</v>
+        <v>1.900560245649104e-11</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>1.548960740259336e-09</v>
+        <v>1.617719091922485e-11</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.73</v>
       </c>
       <c r="C88" t="n">
-        <v>1.672745985219723e-09</v>
+        <v>1.929346606821582e-11</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.75</v>
       </c>
       <c r="C89" t="n">
-        <v>1.74392780137059e-09</v>
+        <v>3.242402904069118e-11</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.75518</v>
       </c>
       <c r="C90" t="n">
-        <v>1.741337850819999e-09</v>
+        <v>7.376205478074019e-11</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.75888</v>
       </c>
       <c r="C91" t="n">
-        <v>1.693084627442909e-09</v>
+        <v>8.181744130534201e-11</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.77004</v>
       </c>
       <c r="C92" t="n">
-        <v>1.583443401365751e-09</v>
+        <v>9.172619371543758e-11</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.77502</v>
       </c>
       <c r="C93" t="n">
-        <v>1.338495551327998e-09</v>
+        <v>9.342871103892123e-11</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>8.125822674702462e-10</v>
+        <v>8.177102386712182e-11</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.79012</v>
       </c>
       <c r="C95" t="n">
-        <v>6.749096715866302e-10</v>
+        <v>6.915704659912315e-11</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>5.317685676269557e-10</v>
+        <v>5.018081387294123e-11</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.81003</v>
       </c>
       <c r="C97" t="n">
-        <v>3.987274127167138e-10</v>
+        <v>4.4187531579651e-11</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>3.684713364406227e-10</v>
+        <v>4.124446966664555e-11</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>3.5838091617495e-10</v>
+        <v>4.115550317325457e-11</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.82006</v>
       </c>
       <c r="C100" t="n">
-        <v>3.624265711552183e-10</v>
+        <v>3.932090583365182e-11</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.82989</v>
       </c>
       <c r="C101" t="n">
-        <v>3.427485694257848e-10</v>
+        <v>3.826000847058075e-11</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>3.397148026186298e-10</v>
+        <v>4.155777840716789e-11</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.86629</v>
       </c>
       <c r="C103" t="n">
-        <v>3.409180131304346e-10</v>
+        <v>5.248808416965153e-11</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.88989</v>
       </c>
       <c r="C104" t="n">
-        <v>3.39397940205984e-10</v>
+        <v>7.894301913757718e-11</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.89991</v>
       </c>
       <c r="C105" t="n">
-        <v>3.321297120704061e-10</v>
+        <v>1.164663558788076e-10</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>3.241367018116649e-10</v>
+        <v>1.481884353511849e-10</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.91996</v>
       </c>
       <c r="C107" t="n">
-        <v>3.225577094748338e-10</v>
+        <v>1.904068845089444e-10</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.92615</v>
       </c>
       <c r="C108" t="n">
-        <v>2.878366063495018e-10</v>
+        <v>2.318472878308669e-10</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>2.916716203180936e-10</v>
+        <v>2.470314914462534e-10</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.93692</v>
       </c>
       <c r="C110" t="n">
-        <v>2.928032605083627e-10</v>
+        <v>2.997694717252779e-10</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.94675</v>
       </c>
       <c r="C111" t="n">
-        <v>2.891554740126478e-10</v>
+        <v>3.553580956418645e-10</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.95027</v>
       </c>
       <c r="C112" t="n">
-        <v>2.513716695402983e-10</v>
+        <v>3.546262374738691e-10</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.95676</v>
       </c>
       <c r="C113" t="n">
-        <v>2.151234408728859e-10</v>
+        <v>3.886787980996177e-10</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>2.015670748388851e-10</v>
+        <v>3.89911633951787e-10</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.96475</v>
       </c>
       <c r="C115" t="n">
-        <v>1.957340387742019e-10</v>
+        <v>3.831309015102466e-10</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.96787</v>
       </c>
       <c r="C116" t="n">
-        <v>2.397086667634343e-10</v>
+        <v>3.724639875516317e-10</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.97004</v>
       </c>
       <c r="C117" t="n">
-        <v>4.09386811580502e-10</v>
+        <v>3.70421383846579e-10</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>4.989456694537157e-10</v>
+        <v>3.482306104323295e-10</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.97463</v>
       </c>
       <c r="C119" t="n">
-        <v>5.25622740435393e-10</v>
+        <v>3.369529091015648e-10</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.98471</v>
       </c>
       <c r="C120" t="n">
-        <v>5.320142247815183e-10</v>
+        <v>2.672305439738501e-10</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>5.385964076512397e-10</v>
+        <v>2.430939015239924e-10</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>5.407827500992424e-10</v>
+        <v>2.010068617433328e-10</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.00464</v>
       </c>
       <c r="C123" t="n">
-        <v>5.133727324223109e-10</v>
+        <v>1.507734089115423e-10</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>4.677299058496526e-10</v>
+        <v>1.351090255112699e-10</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.01484</v>
       </c>
       <c r="C125" t="n">
-        <v>2.843069452068538e-10</v>
+        <v>1.141267634519114e-10</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.01774</v>
       </c>
       <c r="C126" t="n">
-        <v>1.743227872605552e-10</v>
+        <v>1.075415223976266e-10</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.01786</v>
       </c>
       <c r="C127" t="n">
-        <v>1.492483961297062e-10</v>
+        <v>1.077660711250461e-10</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>1.622806984123895e-10</v>
+        <v>1.058991854976229e-10</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.0248</v>
       </c>
       <c r="C129" t="n">
-        <v>2.213728540303059e-10</v>
+        <v>1.00980177270209e-10</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>2.445758340711682e-10</v>
+        <v>1.00607560918401e-10</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.0301</v>
       </c>
       <c r="C131" t="n">
-        <v>3.636758507442049e-10</v>
+        <v>1.009032118621972e-10</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>4.70132460889258e-10</v>
+        <v>1.116829105561535e-10</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.0359</v>
       </c>
       <c r="C133" t="n">
-        <v>4.821558092272792e-10</v>
+        <v>1.204000750979954e-10</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.03871</v>
       </c>
       <c r="C134" t="n">
-        <v>4.572825750846428e-10</v>
+        <v>1.253285992854256e-10</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>4.068485080741013e-10</v>
+        <v>1.249163072447889e-10</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.04479</v>
       </c>
       <c r="C136" t="n">
-        <v>4.028252508580565e-10</v>
+        <v>1.212661770634792e-10</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.04997</v>
       </c>
       <c r="C137" t="n">
-        <v>3.557885636487179e-10</v>
+        <v>1.130886752877368e-10</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.05484</v>
       </c>
       <c r="C138" t="n">
-        <v>2.984035787588968e-10</v>
+        <v>9.533744990420795e-11</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.06488</v>
       </c>
       <c r="C139" t="n">
-        <v>2.690442110700528e-10</v>
+        <v>5.755749988094382e-11</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.06991</v>
       </c>
       <c r="C140" t="n">
-        <v>2.624541223198237e-10</v>
+        <v>4.767292735227052e-11</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.07448</v>
       </c>
       <c r="C141" t="n">
-        <v>2.564029701437773e-10</v>
+        <v>3.746717345996151e-11</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.08419</v>
       </c>
       <c r="C142" t="n">
-        <v>2.522060692112934e-10</v>
+        <v>2.794290946032342e-11</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.08999</v>
       </c>
       <c r="C143" t="n">
-        <v>2.34822078384837e-10</v>
+        <v>2.573983989824572e-11</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>2.593789003032908e-10</v>
+        <v>2.498336359851338e-11</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>2.952430024304131e-10</v>
+        <v>2.522294141624053e-11</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.09889</v>
       </c>
       <c r="C146" t="n">
-        <v>3.306508561133483e-10</v>
+        <v>2.382536916445315e-11</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.09999</v>
       </c>
       <c r="C147" t="n">
-        <v>3.69122709086108e-10</v>
+        <v>2.3600119056984e-11</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.10043</v>
       </c>
       <c r="C148" t="n">
-        <v>4.220863415872147e-10</v>
+        <v>2.367794271509796e-11</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>4.697793910303374e-10</v>
+        <v>2.356871754079878e-11</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.10288</v>
       </c>
       <c r="C150" t="n">
-        <v>4.479165511218394e-10</v>
+        <v>2.303632280502708e-11</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.10486</v>
       </c>
       <c r="C151" t="n">
-        <v>4.462488111442451e-10</v>
+        <v>2.245732160190171e-11</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.1069</v>
       </c>
       <c r="C152" t="n">
-        <v>3.95129558402157e-10</v>
+        <v>2.232271860587269e-11</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.10878</v>
       </c>
       <c r="C153" t="n">
-        <v>3.879580299377191e-10</v>
+        <v>1.989912732967545e-11</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>3.403832962647506e-10</v>
+        <v>2.015020533743616e-11</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>3.251510863848343e-10</v>
+        <v>2.02204417515787e-11</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.11384</v>
       </c>
       <c r="C156" t="n">
-        <v>3.165793234339281e-10</v>
+        <v>1.993442920741587e-11</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.1188</v>
       </c>
       <c r="C157" t="n">
-        <v>3.993847687298726e-10</v>
+        <v>1.7282124172459e-11</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>3.476642836497121e-10</v>
+        <v>1.474940599073418e-11</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.12852</v>
       </c>
       <c r="C159" t="n">
-        <v>3.63630262702071e-10</v>
+        <v>1.378368194974377e-11</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.12994</v>
       </c>
       <c r="C160" t="n">
-        <v>3.279786523463435e-10</v>
+        <v>1.337429398950696e-11</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.13381</v>
       </c>
       <c r="C161" t="n">
-        <v>3.05966292243426e-10</v>
+        <v>1.634400596870629e-11</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.13888</v>
       </c>
       <c r="C162" t="n">
-        <v>2.889578952745641e-10</v>
+        <v>2.783496004336901e-11</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.14165</v>
       </c>
       <c r="C163" t="n">
-        <v>2.701595888942531e-10</v>
+        <v>3.387228889630736e-11</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>2.48404815090813e-10</v>
+        <v>3.562239286921575e-11</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.14799</v>
       </c>
       <c r="C165" t="n">
-        <v>2.505409040897063e-10</v>
+        <v>3.5990792059542e-11</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.15001</v>
       </c>
       <c r="C166" t="n">
-        <v>1.269969248520418e-10</v>
+        <v>3.639538566595272e-11</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>5.17706100567087e-11</v>
+        <v>3.652352362925429e-11</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>3.183651869392184e-11</v>
+        <v>3.455626354072012e-11</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.15937</v>
       </c>
       <c r="C169" t="n">
-        <v>4.487751602667823e-11</v>
+        <v>3.14433896413448e-11</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.17005</v>
       </c>
       <c r="C170" t="n">
-        <v>2.786904021146972e-11</v>
+        <v>1.900010123223856e-11</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.18984</v>
       </c>
       <c r="C171" t="n">
-        <v>2.2522190238379e-11</v>
+        <v>1.15230710542359e-11</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>1.906146427773834e-11</v>
+        <v>9.756033608502995e-12</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.23003</v>
       </c>
       <c r="C173" t="n">
-        <v>1.949652115012788e-11</v>
+        <v>1.049121205259566e-11</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.2395</v>
       </c>
       <c r="C174" t="n">
-        <v>2.650843264540649e-11</v>
+        <v>1.423665890980182e-11</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.24306</v>
       </c>
       <c r="C175" t="n">
-        <v>4.809093690490912e-11</v>
+        <v>1.569791602646087e-11</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.25013</v>
       </c>
       <c r="C176" t="n">
-        <v>5.214249824065675e-11</v>
+        <v>2.32511489673268e-11</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>4.427343528989402e-11</v>
+        <v>2.989464707482957e-11</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>3.905998322564727e-11</v>
+        <v>3.057281069421091e-11</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.26998</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2.891650669970658e-11</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2.565650537303769e-11</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.27502</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2.540194934188894e-11</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279809999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2.237647073049426e-11</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.28495</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.871409348521963e-11</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.29016</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.682429071702217e-11</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.29294</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1.638696933894034e-11</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.29767</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.596731727210935e-11</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.29972</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.568815757286946e-11</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.30238</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.458533122543665e-11</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.30823</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1.605856019365319e-11</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312880000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.823200588472016e-11</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.31752</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2.036618915012603e-11</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.32281</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.266939927269945e-11</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.32768</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2.585238249814453e-11</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2.869088745782929e-11</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.33291</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2.735520190589362e-11</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.33747</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2.718469017797218e-11</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.34274</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2.400052629473539e-11</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.34293</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2.356244455773278e-11</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.34694</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2.062720924015617e-11</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.34826</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1.968975561466407e-11</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.34858</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1.916729318571343e-11</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.35205</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2.413437750794091e-11</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.3536</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.099096028454271e-11</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.3579</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2.19027786350121e-11</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359830000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.973427183917237e-11</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.36189</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.838883503135059e-11</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.36386</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.734770082488891e-11</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.36605</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.61995002793126e-11</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368040000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.487863745447306e-11</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.36965</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.49932231207495e-11</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.3748</v>
+      </c>
+      <c r="C211" t="n">
+        <v>7.578309326179925e-12</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.38009</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3.080289471713146e-12</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382919999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.891271764467837e-12</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.38334</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2.665362459484839e-12</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383859999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1.65472013993776e-12</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.38596</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1.335699173547653e-12</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.38986</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1.128021441456546e-12</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.39308</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.15171399663337e-12</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.40341</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.557004548525729e-12</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.41408</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2.808055575764035e-12</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.42436</v>
+      </c>
+      <c r="C221" t="n">
+        <v>3.027363842697701e-12</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.43541</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2.554826098099609e-12</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.43926</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2.249185357928337e-12</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints3.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints3.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99602</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="C2" t="n">
-        <v>9.768197773044828e-12</v>
+        <v>2.454159411422789e-10</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.00097</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="C3" t="n">
-        <v>2.676436164454939e-11</v>
+        <v>3.069163119297576e-10</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="C4" t="n">
-        <v>4.007281950503774e-11</v>
+        <v>4.349843270834533e-10</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.00697</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="C5" t="n">
-        <v>4.155575958126827e-11</v>
+        <v>6.110018936685458e-10</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.00909</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="C6" t="n">
-        <v>4.299635046170282e-11</v>
+        <v>8.148801115111424e-10</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.01003</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="C7" t="n">
-        <v>4.53814199272473e-11</v>
+        <v>1.667482106157342e-09</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="C8" t="n">
-        <v>4.07621227356202e-11</v>
+        <v>2.742568836352113e-09</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.01911</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="C9" t="n">
-        <v>4.446691572281698e-11</v>
+        <v>7.414774130940121e-09</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.01992</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="C10" t="n">
-        <v>3.298939470157512e-11</v>
+        <v>1.181773092010344e-08</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.02504</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="C11" t="n">
-        <v>4.116710088319015e-11</v>
+        <v>1.263708426008282e-08</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.02998</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="C12" t="n">
-        <v>3.173954740059162e-11</v>
+        <v>9.944975999184218e-09</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.03514</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="C13" t="n">
-        <v>2.807410232836902e-11</v>
+        <v>5.033080294542043e-09</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.26996</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="C14" t="n">
-        <v>2.395818017651087e-11</v>
+        <v>3.830740432978054e-09</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.29005</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="C15" t="n">
-        <v>1.776109611481993e-11</v>
+        <v>4.828334877635872e-09</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291119999999999</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="C16" t="n">
-        <v>1.811910233854899e-11</v>
+        <v>2.118864907633253e-09</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.29319</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="C17" t="n">
-        <v>1.564093717922639e-11</v>
+        <v>1.520121985713165e-09</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.2942</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="C18" t="n">
-        <v>1.598885156898002e-11</v>
+        <v>8.660688422342459e-10</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.29515</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="C19" t="n">
-        <v>2.052487584911647e-11</v>
+        <v>4.408481282952813e-10</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.29615</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="C20" t="n">
-        <v>1.68279370157011e-11</v>
+        <v>3.36278940395969e-10</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="C21" t="n">
-        <v>1.953230316091302e-11</v>
+        <v>3.365710861598573e-10</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298080000000001</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="C22" t="n">
-        <v>3.707256362434756e-11</v>
+        <v>3.967323366035301e-10</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299090000000001</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="C23" t="n">
-        <v>4.142315396224513e-11</v>
+        <v>4.983405897401509e-10</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.30105</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="C24" t="n">
-        <v>5.472833243459397e-11</v>
+        <v>4.757929203393355e-10</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.3031</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="C25" t="n">
-        <v>5.962350385058254e-11</v>
+        <v>9.990869674401224e-10</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.30523</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="C26" t="n">
-        <v>5.20541047198349e-11</v>
+        <v>1.498225874954058e-09</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="C27" t="n">
-        <v>6.303624650176273e-11</v>
+        <v>3.534909128129406e-09</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.3093</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="C28" t="n">
-        <v>5.725869918827154e-11</v>
+        <v>8.654633587431835e-09</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.30996</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="C29" t="n">
-        <v>5.953354628282107e-11</v>
+        <v>8.284467014553917e-09</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.31117</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="C30" t="n">
-        <v>5.823514513262486e-11</v>
+        <v>4.381216148987359e-09</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.31311</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="C31" t="n">
-        <v>5.783299905491198e-11</v>
+        <v>2.221272421273822e-09</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.31513</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="C32" t="n">
-        <v>5.443048654873603e-11</v>
+        <v>1.082370153288936e-09</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.3172</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="C33" t="n">
-        <v>5.014532804019153e-11</v>
+        <v>1.087651113810083e-09</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.31917</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="C34" t="n">
-        <v>5.952859644700701e-11</v>
+        <v>7.422630254673278e-10</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="C35" t="n">
-        <v>5.184175983478791e-11</v>
+        <v>6.404784650349379e-10</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="C36" t="n">
-        <v>5.002242360413939e-11</v>
+        <v>4.052979262593093e-10</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.32521</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="C37" t="n">
-        <v>3.238482493409274e-11</v>
+        <v>4.541912971227561e-10</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.32711</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="C38" t="n">
-        <v>3.289453103334858e-11</v>
+        <v>9.4525153709565e-10</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.32908</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="C39" t="n">
-        <v>2.694989033785611e-11</v>
+        <v>5.999082633721905e-10</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.33012</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="C40" t="n">
-        <v>3.28537713498813e-11</v>
+        <v>2.602646837554997e-10</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.33119</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="C41" t="n">
-        <v>4.9331688782614e-11</v>
+        <v>2.18056349668404e-10</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.33324</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="C42" t="n">
-        <v>5.011981755823766e-11</v>
+        <v>1.876794176781891e-10</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.33515</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="C43" t="n">
-        <v>4.652072120406152e-11</v>
+        <v>2.263204536272392e-10</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.34004</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="C44" t="n">
-        <v>4.130677986172384e-11</v>
+        <v>3.84578806138058e-10</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.34488</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="C45" t="n">
-        <v>4.285931477133903e-11</v>
+        <v>8.773963458153221e-10</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.34998</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="C46" t="n">
-        <v>4.084397326988684e-11</v>
+        <v>9.752087738038629e-10</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.37005</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="C47" t="n">
-        <v>2.553077093675963e-11</v>
+        <v>1.100084807565147e-09</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.39015</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="C48" t="n">
-        <v>3.157564922748223e-11</v>
+        <v>1.123594362727725e-09</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.41003</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="C49" t="n">
-        <v>4.426188833972738e-11</v>
+        <v>9.862074364499966e-10</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.42024</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="C50" t="n">
-        <v>6.182242349501941e-11</v>
+        <v>8.38674174618507e-10</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.43018</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="C51" t="n">
-        <v>8.199912032175551e-11</v>
+        <v>6.118555352793227e-10</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.44004</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="C52" t="n">
-        <v>1.668813798557019e-10</v>
+        <v>5.418009591091892e-10</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.44994</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="C53" t="n">
-        <v>2.729768713306397e-10</v>
+        <v>5.06311118791416e-10</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.45499</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="C54" t="n">
-        <v>7.359579899802404e-10</v>
+        <v>5.060888929916492e-10</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.46012</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="C55" t="n">
-        <v>1.169652248379967e-09</v>
+        <v>4.84811773761441e-10</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469959999999999</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="C56" t="n">
-        <v>1.243957588047018e-09</v>
+        <v>4.743034394070771e-10</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477980000000001</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="C57" t="n">
-        <v>9.746208540100797e-10</v>
+        <v>5.20957130468065e-10</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.48613</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="C58" t="n">
-        <v>4.910298071467347e-10</v>
+        <v>6.639214525995381e-10</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.48819</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="C59" t="n">
-        <v>3.73303297788897e-10</v>
+        <v>1.011671224773988e-09</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490069999999999</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="C60" t="n">
-        <v>4.700291923690858e-10</v>
+        <v>1.500836442363662e-09</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.49222</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="C61" t="n">
-        <v>2.060222844149341e-10</v>
+        <v>1.920447564965625e-09</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.49499</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="C62" t="n">
-        <v>1.475787756943975e-10</v>
+        <v>2.481031946109243e-09</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499969999999999</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="C63" t="n">
-        <v>8.384969319188223e-11</v>
+        <v>3.031369106415935e-09</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.51021</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="C64" t="n">
-        <v>4.244025627272276e-11</v>
+        <v>3.237126671581914e-09</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.51218</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="C65" t="n">
-        <v>3.233816645676133e-11</v>
+        <v>3.942862184861879e-09</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.51508</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="C66" t="n">
-        <v>3.23143799867298e-11</v>
+        <v>4.699503492044098e-09</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.52007</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="C67" t="n">
-        <v>3.79854977253888e-11</v>
+        <v>4.698965701388157e-09</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.52524</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="C68" t="n">
-        <v>4.757780890348415e-11</v>
+        <v>5.16870118456039e-09</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529409999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="C69" t="n">
-        <v>4.532046392394383e-11</v>
+        <v>5.19977316900218e-09</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.53506</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="C70" t="n">
-        <v>9.486855904099261e-11</v>
+        <v>5.117493272369474e-09</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.54024</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="C71" t="n">
-        <v>1.418573542559709e-10</v>
+        <v>4.983608741383085e-09</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5498</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="C72" t="n">
-        <v>3.329324397915563e-10</v>
+        <v>4.962231520434819e-09</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.56018</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="C73" t="n">
-        <v>8.10462350615552e-10</v>
+        <v>4.672087655509638e-09</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570130000000001</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="C74" t="n">
-        <v>7.715398020061239e-10</v>
+        <v>4.525357450809843e-09</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580030000000001</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="C75" t="n">
-        <v>4.057981446975873e-10</v>
+        <v>3.609037567856276e-09</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.59008</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="C76" t="n">
-        <v>2.045986580650779e-10</v>
+        <v>3.292812958113296e-09</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.60027</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="C77" t="n">
-        <v>9.913538775116628e-11</v>
+        <v>2.729662726529358e-09</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.60999</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="C78" t="n">
-        <v>9.908487574580859e-11</v>
+        <v>2.058818500757255e-09</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.62023</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="C79" t="n">
-        <v>6.72381136510417e-11</v>
+        <v>1.850388661006646e-09</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.62994</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="C80" t="n">
-        <v>5.770713141063037e-11</v>
+        <v>1.567224695308594e-09</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.63517</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="C81" t="n">
-        <v>3.641186099808534e-11</v>
+        <v>1.479165074931046e-09</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="C82" t="n">
-        <v>4.069645207207833e-11</v>
+        <v>1.482351996269765e-09</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.64996</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="C83" t="n">
-        <v>8.422920933375557e-11</v>
+        <v>1.458252684738793e-09</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.67012</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="C84" t="n">
-        <v>5.286362242913597e-11</v>
+        <v>1.394352864601776e-09</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.68015</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="C85" t="n">
-        <v>2.280750087999849e-11</v>
+        <v>1.391538141550442e-09</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.68993</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="C86" t="n">
-        <v>1.900560245649104e-11</v>
+        <v>1.39738099302842e-09</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="C87" t="n">
-        <v>1.617719091922485e-11</v>
+        <v>1.548960740259336e-09</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.73</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="C88" t="n">
-        <v>1.929346606821582e-11</v>
+        <v>1.672745985219723e-09</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.75</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="C89" t="n">
-        <v>3.242402904069118e-11</v>
+        <v>1.74392780137059e-09</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.75518</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="C90" t="n">
-        <v>7.376205478074019e-11</v>
+        <v>1.741337850819999e-09</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.75888</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="C91" t="n">
-        <v>8.181744130534201e-11</v>
+        <v>1.693084627442909e-09</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.77004</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="C92" t="n">
-        <v>9.172619371543758e-11</v>
+        <v>1.583443401365751e-09</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.77502</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="C93" t="n">
-        <v>9.342871103892123e-11</v>
+        <v>1.338495551327998e-09</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780180000000001</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="C94" t="n">
-        <v>8.177102386712182e-11</v>
+        <v>8.125822674702462e-10</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.79012</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="C95" t="n">
-        <v>6.915704659912315e-11</v>
+        <v>6.749096715866302e-10</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799919999999999</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="C96" t="n">
-        <v>5.018081387294123e-11</v>
+        <v>5.317685676269557e-10</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.81003</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="C97" t="n">
-        <v>4.4187531579651e-11</v>
+        <v>3.987274127167138e-10</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="C98" t="n">
-        <v>4.124446966664555e-11</v>
+        <v>3.684713364406227e-10</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="C99" t="n">
-        <v>4.115550317325457e-11</v>
+        <v>3.5838091617495e-10</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.82006</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="C100" t="n">
-        <v>3.932090583365182e-11</v>
+        <v>3.624265711552183e-10</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.82989</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="C101" t="n">
-        <v>3.826000847058075e-11</v>
+        <v>3.427485694257848e-10</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="C102" t="n">
-        <v>4.155777840716789e-11</v>
+        <v>3.397148026186298e-10</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.86629</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="C103" t="n">
-        <v>5.248808416965153e-11</v>
+        <v>3.409180131304346e-10</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.88989</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="C104" t="n">
-        <v>7.894301913757718e-11</v>
+        <v>3.39397940205984e-10</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.89991</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="C105" t="n">
-        <v>1.164663558788076e-10</v>
+        <v>3.321297120704061e-10</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="C106" t="n">
-        <v>1.481884353511849e-10</v>
+        <v>3.241367018116649e-10</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.91996</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="C107" t="n">
-        <v>1.904068845089444e-10</v>
+        <v>3.225577094748338e-10</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.92615</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="C108" t="n">
-        <v>2.318472878308669e-10</v>
+        <v>2.878366063495018e-10</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930190000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="C109" t="n">
-        <v>2.470314914462534e-10</v>
+        <v>2.916716203180936e-10</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.93692</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="C110" t="n">
-        <v>2.997694717252779e-10</v>
+        <v>2.928032605083627e-10</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.94675</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="C111" t="n">
-        <v>3.553580956418645e-10</v>
+        <v>2.891554740126478e-10</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.95027</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="C112" t="n">
-        <v>3.546262374738691e-10</v>
+        <v>2.513716695402983e-10</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.95676</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="C113" t="n">
-        <v>3.886787980996177e-10</v>
+        <v>2.151234408728859e-10</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869999999999</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="C114" t="n">
-        <v>3.89911633951787e-10</v>
+        <v>2.015670748388851e-10</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.96475</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="C115" t="n">
-        <v>3.831309015102466e-10</v>
+        <v>1.957340387742019e-10</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96787</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="C116" t="n">
-        <v>3.724639875516317e-10</v>
+        <v>2.397086667634343e-10</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.97004</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="C117" t="n">
-        <v>3.70421383846579e-10</v>
+        <v>4.09386811580502e-10</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="C118" t="n">
-        <v>3.482306104323295e-10</v>
+        <v>4.989456694537157e-10</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.97463</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="C119" t="n">
-        <v>3.369529091015648e-10</v>
+        <v>5.25622740435393e-10</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.98471</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="C120" t="n">
-        <v>2.672305439738501e-10</v>
+        <v>5.320142247815183e-10</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990069999999999</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="C121" t="n">
-        <v>2.430939015239924e-10</v>
+        <v>5.385964076512397e-10</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669999999999</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="C122" t="n">
-        <v>2.010068617433328e-10</v>
+        <v>5.407827500992424e-10</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.00464</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="C123" t="n">
-        <v>1.507734089115423e-10</v>
+        <v>5.133727324223109e-10</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="C124" t="n">
-        <v>1.351090255112699e-10</v>
+        <v>4.677299058496526e-10</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.01484</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="C125" t="n">
-        <v>1.141267634519114e-10</v>
+        <v>2.843069452068538e-10</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.01774</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="C126" t="n">
-        <v>1.075415223976266e-10</v>
+        <v>1.743227872605552e-10</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.01786</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="C127" t="n">
-        <v>1.077660711250461e-10</v>
+        <v>1.492483961297062e-10</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019819999999999</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="C128" t="n">
-        <v>1.058991854976229e-10</v>
+        <v>1.622806984123895e-10</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.0248</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="C129" t="n">
-        <v>1.00980177270209e-10</v>
+        <v>2.213728540303059e-10</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027830000000001</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="C130" t="n">
-        <v>1.00607560918401e-10</v>
+        <v>2.445758340711682e-10</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.0301</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="C131" t="n">
-        <v>1.009032118621972e-10</v>
+        <v>3.636758507442049e-10</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032780000000001</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="C132" t="n">
-        <v>1.116829105561535e-10</v>
+        <v>4.70132460889258e-10</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.0359</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="C133" t="n">
-        <v>1.204000750979954e-10</v>
+        <v>4.821558092272792e-10</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.03871</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="C134" t="n">
-        <v>1.253285992854256e-10</v>
+        <v>4.572825750846428e-10</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041980000000001</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="C135" t="n">
-        <v>1.249163072447889e-10</v>
+        <v>4.068485080741013e-10</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.04479</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="C136" t="n">
-        <v>1.212661770634792e-10</v>
+        <v>4.028252508580565e-10</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.04997</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="C137" t="n">
-        <v>1.130886752877368e-10</v>
+        <v>3.557885636487179e-10</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.05484</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="C138" t="n">
-        <v>9.533744990420795e-11</v>
+        <v>2.984035787588968e-10</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.06488</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="C139" t="n">
-        <v>5.755749988094382e-11</v>
+        <v>2.690442110700528e-10</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.06991</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="C140" t="n">
-        <v>4.767292735227052e-11</v>
+        <v>2.624541223198237e-10</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.07448</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="C141" t="n">
-        <v>3.746717345996151e-11</v>
+        <v>2.564029701437773e-10</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.08419</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="C142" t="n">
-        <v>2.794290946032342e-11</v>
+        <v>2.522060692112934e-10</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.08999</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="C143" t="n">
-        <v>2.573983989824572e-11</v>
+        <v>2.34822078384837e-10</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093719999999999</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="C144" t="n">
-        <v>2.498336359851338e-11</v>
+        <v>2.593789003032908e-10</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="C145" t="n">
-        <v>2.522294141624053e-11</v>
+        <v>2.952430024304131e-10</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.09889</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="C146" t="n">
-        <v>2.382536916445315e-11</v>
+        <v>3.306508561133483e-10</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.09999</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="C147" t="n">
-        <v>2.3600119056984e-11</v>
+        <v>3.69122709086108e-10</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.10043</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="C148" t="n">
-        <v>2.367794271509796e-11</v>
+        <v>4.220863415872147e-10</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100709999999999</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="C149" t="n">
-        <v>2.356871754079878e-11</v>
+        <v>4.697793910303374e-10</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.10288</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="C150" t="n">
-        <v>2.303632280502708e-11</v>
+        <v>4.479165511218394e-10</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.10486</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="C151" t="n">
-        <v>2.245732160190171e-11</v>
+        <v>4.462488111442451e-10</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.1069</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="C152" t="n">
-        <v>2.232271860587269e-11</v>
+        <v>3.95129558402157e-10</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.10878</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="C153" t="n">
-        <v>1.989912732967545e-11</v>
+        <v>3.879580299377191e-10</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110040000000001</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="C154" t="n">
-        <v>2.015020533743616e-11</v>
+        <v>3.403832962647506e-10</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="C155" t="n">
-        <v>2.02204417515787e-11</v>
+        <v>3.251510863848343e-10</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.11384</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="C156" t="n">
-        <v>1.993442920741587e-11</v>
+        <v>3.165793234339281e-10</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.1188</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="C157" t="n">
-        <v>1.7282124172459e-11</v>
+        <v>3.993847687298726e-10</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123769999999999</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="C158" t="n">
-        <v>1.474940599073418e-11</v>
+        <v>3.476642836497121e-10</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.12852</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="C159" t="n">
-        <v>1.378368194974377e-11</v>
+        <v>3.63630262702071e-10</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.12994</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="C160" t="n">
-        <v>1.337429398950696e-11</v>
+        <v>3.279786523463435e-10</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.13381</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="C161" t="n">
-        <v>1.634400596870629e-11</v>
+        <v>3.05966292243426e-10</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.13888</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="C162" t="n">
-        <v>2.783496004336901e-11</v>
+        <v>2.889578952745641e-10</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.14165</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="C163" t="n">
-        <v>3.387228889630736e-11</v>
+        <v>2.701595888942531e-10</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144740000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="C164" t="n">
-        <v>3.562239286921575e-11</v>
+        <v>2.48404815090813e-10</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.14799</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="C165" t="n">
-        <v>3.5990792059542e-11</v>
+        <v>2.505409040897063e-10</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.15001</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="C166" t="n">
-        <v>3.639538566595272e-11</v>
+        <v>1.269969248520418e-10</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150980000000001</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="C167" t="n">
-        <v>3.652352362925429e-11</v>
+        <v>5.17706100567087e-11</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="C168" t="n">
-        <v>3.455626354072012e-11</v>
+        <v>3.183651869392184e-11</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.15937</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="C169" t="n">
-        <v>3.14433896413448e-11</v>
+        <v>4.487751602667823e-11</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.17005</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="C170" t="n">
-        <v>1.900010123223856e-11</v>
+        <v>2.786904021146972e-11</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.18984</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="C171" t="n">
-        <v>1.15230710542359e-11</v>
+        <v>2.2522190238379e-11</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210030000000001</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="C172" t="n">
-        <v>9.756033608502995e-12</v>
+        <v>1.906146427773834e-11</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.23003</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="C173" t="n">
-        <v>1.049121205259566e-11</v>
+        <v>1.949652115012788e-11</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.2395</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="C174" t="n">
-        <v>1.423665890980182e-11</v>
+        <v>2.650843264540649e-11</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.24306</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="C175" t="n">
-        <v>1.569791602646087e-11</v>
+        <v>4.809093690490912e-11</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.25013</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="C176" t="n">
-        <v>2.32511489673268e-11</v>
+        <v>5.214249824065675e-11</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.25994</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="C177" t="n">
-        <v>2.989464707482957e-11</v>
+        <v>4.427343528989402e-11</v>
       </c>
     </row>
     <row r="178">
@@ -2319,505 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.26504</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="C178" t="n">
-        <v>3.057281069421091e-11</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.26998</v>
-      </c>
-      <c r="C179" t="n">
-        <v>2.891650669970658e-11</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>2.565650537303769e-11</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.27502</v>
-      </c>
-      <c r="C181" t="n">
-        <v>2.540194934188894e-11</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279809999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>2.237647073049426e-11</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.28495</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1.871409348521963e-11</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.29016</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1.682429071702217e-11</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.29294</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1.638696933894034e-11</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.29767</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1.596731727210935e-11</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.29972</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1.568815757286946e-11</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.30238</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1.458533122543665e-11</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.30823</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1.605856019365319e-11</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312880000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>1.823200588472016e-11</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.31752</v>
-      </c>
-      <c r="C191" t="n">
-        <v>2.036618915012603e-11</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.32281</v>
-      </c>
-      <c r="C192" t="n">
-        <v>2.266939927269945e-11</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.32768</v>
-      </c>
-      <c r="C193" t="n">
-        <v>2.585238249814453e-11</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>2.869088745782929e-11</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.33291</v>
-      </c>
-      <c r="C195" t="n">
-        <v>2.735520190589362e-11</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.33747</v>
-      </c>
-      <c r="C196" t="n">
-        <v>2.718469017797218e-11</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.34274</v>
-      </c>
-      <c r="C197" t="n">
-        <v>2.400052629473539e-11</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.34293</v>
-      </c>
-      <c r="C198" t="n">
-        <v>2.356244455773278e-11</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.34694</v>
-      </c>
-      <c r="C199" t="n">
-        <v>2.062720924015617e-11</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.34826</v>
-      </c>
-      <c r="C200" t="n">
-        <v>1.968975561466407e-11</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.34858</v>
-      </c>
-      <c r="C201" t="n">
-        <v>1.916729318571343e-11</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.35205</v>
-      </c>
-      <c r="C202" t="n">
-        <v>2.413437750794091e-11</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.3536</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2.099096028454271e-11</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.3579</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2.19027786350121e-11</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359830000000001</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1.973427183917237e-11</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.36189</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1.838883503135059e-11</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.36386</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1.734770082488891e-11</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.36605</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1.61995002793126e-11</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368040000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1.487863745447306e-11</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.36965</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1.49932231207495e-11</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.3748</v>
-      </c>
-      <c r="C211" t="n">
-        <v>7.578309326179925e-12</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.38009</v>
-      </c>
-      <c r="C212" t="n">
-        <v>3.080289471713146e-12</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382919999999999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1.891271764467837e-12</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.38334</v>
-      </c>
-      <c r="C214" t="n">
-        <v>2.665362459484839e-12</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383859999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1.65472013993776e-12</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.38596</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1.335699173547653e-12</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.38986</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1.128021441456546e-12</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.39308</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1.15171399663337e-12</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.40341</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1.557004548525729e-12</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.41408</v>
-      </c>
-      <c r="C220" t="n">
-        <v>2.808055575764035e-12</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.42436</v>
-      </c>
-      <c r="C221" t="n">
-        <v>3.027363842697701e-12</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.43541</v>
-      </c>
-      <c r="C222" t="n">
-        <v>2.554826098099609e-12</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.43926</v>
-      </c>
-      <c r="C223" t="n">
-        <v>2.249185357928337e-12</v>
+        <v>3.905998322564727e-11</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints3.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints3.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.996021</v>
       </c>
       <c r="C2" t="n">
-        <v>2.454159411422789e-10</v>
+        <v>15289272.79675044</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.000967</v>
       </c>
       <c r="C3" t="n">
-        <v>3.069163119297576e-10</v>
+        <v>26088591.96424293</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>4.349843270834533e-10</v>
+        <v>36415078.62040134</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.006972</v>
       </c>
       <c r="C5" t="n">
-        <v>6.110018936685458e-10</v>
+        <v>36075101.19024194</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.009086</v>
       </c>
       <c r="C6" t="n">
-        <v>8.148801115111424e-10</v>
+        <v>44173518.11285675</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.010032</v>
       </c>
       <c r="C7" t="n">
-        <v>1.667482106157342e-09</v>
+        <v>42078813.21580025</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>2.742568836352113e-09</v>
+        <v>40223833.86911188</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.019108</v>
       </c>
       <c r="C9" t="n">
-        <v>7.414774130940121e-09</v>
+        <v>43475299.79789714</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.019916</v>
       </c>
       <c r="C10" t="n">
-        <v>1.181773092010344e-08</v>
+        <v>30782765.44638494</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.025044</v>
       </c>
       <c r="C11" t="n">
-        <v>1.263708426008282e-08</v>
+        <v>38531185.70234352</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.029979</v>
       </c>
       <c r="C12" t="n">
-        <v>9.944975999184218e-09</v>
+        <v>42461961.41211762</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.035141</v>
       </c>
       <c r="C13" t="n">
-        <v>5.033080294542043e-09</v>
+        <v>26968044.39286161</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.269958</v>
       </c>
       <c r="C14" t="n">
-        <v>3.830740432978054e-09</v>
+        <v>22033284.09097605</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.290051</v>
       </c>
       <c r="C15" t="n">
-        <v>4.828334877635872e-09</v>
+        <v>16173607.60465526</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>2.118864907633253e-09</v>
+        <v>17397233.54325239</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.293189</v>
       </c>
       <c r="C17" t="n">
-        <v>1.520121985713165e-09</v>
+        <v>14661431.56850048</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.294196</v>
       </c>
       <c r="C18" t="n">
-        <v>8.660688422342459e-10</v>
+        <v>15139719.85323733</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.295147</v>
       </c>
       <c r="C19" t="n">
-        <v>4.408481282952813e-10</v>
+        <v>19134159.58421979</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>3.36278940395969e-10</v>
+        <v>15771231.39972823</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>3.365710861598573e-10</v>
+        <v>18758219.77770979</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>3.967323366035301e-10</v>
+        <v>33696202.36918826</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299093</v>
       </c>
       <c r="C23" t="n">
-        <v>4.983405897401509e-10</v>
+        <v>39212214.81990076</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>4.757929203393355e-10</v>
+        <v>54501441.20441652</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.303098</v>
       </c>
       <c r="C25" t="n">
-        <v>9.990869674401224e-10</v>
+        <v>57519433.05117834</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.305231</v>
       </c>
       <c r="C26" t="n">
-        <v>1.498225874954058e-09</v>
+        <v>53951448.06610803</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>3.534909128129406e-09</v>
+        <v>59105177.95142701</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.309297</v>
       </c>
       <c r="C28" t="n">
-        <v>8.654633587431835e-09</v>
+        <v>57528300.79373005</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.309961</v>
       </c>
       <c r="C29" t="n">
-        <v>8.284467014553917e-09</v>
+        <v>56902031.29625873</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.311172</v>
       </c>
       <c r="C30" t="n">
-        <v>4.381216148987359e-09</v>
+        <v>55729200.16741797</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>2.221272421273822e-09</v>
+        <v>56296782.71880147</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.315126</v>
       </c>
       <c r="C32" t="n">
-        <v>1.082370153288936e-09</v>
+        <v>52501471.65502061</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.317204</v>
       </c>
       <c r="C33" t="n">
-        <v>1.087651113810083e-09</v>
+        <v>49274801.17111345</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.319168</v>
       </c>
       <c r="C34" t="n">
-        <v>7.422630254673278e-10</v>
+        <v>55452195.79183661</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>6.404784650349379e-10</v>
+        <v>49090234.81479719</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>4.052979262593093e-10</v>
+        <v>46754418.7025213</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.325205</v>
       </c>
       <c r="C37" t="n">
-        <v>4.541912971227561e-10</v>
+        <v>31340859.75791851</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>9.4525153709565e-10</v>
+        <v>30984630.67275303</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.329078</v>
       </c>
       <c r="C39" t="n">
-        <v>5.999082633721905e-10</v>
+        <v>29116135.34920491</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.330119</v>
       </c>
       <c r="C40" t="n">
-        <v>2.602646837554997e-10</v>
+        <v>31060026.02595051</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.331189</v>
       </c>
       <c r="C41" t="n">
-        <v>2.18056349668404e-10</v>
+        <v>46220737.0162213</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.333242</v>
       </c>
       <c r="C42" t="n">
-        <v>1.876794176781891e-10</v>
+        <v>47332892.50010905</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>2.263204536272392e-10</v>
+        <v>43276867.65306412</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.340042</v>
       </c>
       <c r="C44" t="n">
-        <v>3.84578806138058e-10</v>
+        <v>38601505.20318118</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>8.773963458153221e-10</v>
+        <v>39825806.28744446</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.349976</v>
       </c>
       <c r="C46" t="n">
-        <v>9.752087738038629e-10</v>
+        <v>38196604.94206274</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.370053</v>
       </c>
       <c r="C47" t="n">
-        <v>1.100084807565147e-09</v>
+        <v>23674062.88743217</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.390148</v>
       </c>
       <c r="C48" t="n">
-        <v>1.123594362727725e-09</v>
+        <v>29515753.69199551</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.410025</v>
       </c>
       <c r="C49" t="n">
-        <v>9.862074364499966e-10</v>
+        <v>41173196.97170698</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.420244</v>
       </c>
       <c r="C50" t="n">
-        <v>8.38674174618507e-10</v>
+        <v>57884073.37754584</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.430182</v>
       </c>
       <c r="C51" t="n">
-        <v>6.118555352793227e-10</v>
+        <v>76643107.33874084</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.440043</v>
       </c>
       <c r="C52" t="n">
-        <v>5.418009591091892e-10</v>
+        <v>155346529.8991774</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.449945</v>
       </c>
       <c r="C53" t="n">
-        <v>5.06311118791416e-10</v>
+        <v>254119337.9498669</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.454988</v>
       </c>
       <c r="C54" t="n">
-        <v>5.060888929916492e-10</v>
+        <v>687228711.3211352</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.460121</v>
       </c>
       <c r="C55" t="n">
-        <v>4.84811773761441e-10</v>
+        <v>1091198140.845172</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469957</v>
       </c>
       <c r="C56" t="n">
-        <v>4.743034394070771e-10</v>
+        <v>1158812047.397109</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477981</v>
       </c>
       <c r="C57" t="n">
-        <v>5.20957130468065e-10</v>
+        <v>908392951.889979</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.486129</v>
       </c>
       <c r="C58" t="n">
-        <v>6.639214525995381e-10</v>
+        <v>458669997.4102208</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.488189</v>
       </c>
       <c r="C59" t="n">
-        <v>1.011671224773988e-09</v>
+        <v>349007390.6071434</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>1.500836442363662e-09</v>
+        <v>438573323.760477</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.492223</v>
       </c>
       <c r="C61" t="n">
-        <v>1.920447564965625e-09</v>
+        <v>192000364.6767456</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.494992</v>
       </c>
       <c r="C62" t="n">
-        <v>2.481031946109243e-09</v>
+        <v>137185091.6599101</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>3.031369106415935e-09</v>
+        <v>77785121.44786644</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.510205</v>
       </c>
       <c r="C64" t="n">
-        <v>3.237126671581914e-09</v>
+        <v>39595927.55289823</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.512183</v>
       </c>
       <c r="C65" t="n">
-        <v>3.942862184861879e-09</v>
+        <v>30220832.92004775</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>4.699503492044098e-09</v>
+        <v>30426929.37311525</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.520067</v>
       </c>
       <c r="C67" t="n">
-        <v>4.698965701388157e-09</v>
+        <v>35373924.1635855</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.525238</v>
       </c>
       <c r="C68" t="n">
-        <v>5.16870118456039e-09</v>
+        <v>45395022.02144845</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529406</v>
       </c>
       <c r="C69" t="n">
-        <v>5.19977316900218e-09</v>
+        <v>43376274.41246297</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.535056</v>
       </c>
       <c r="C70" t="n">
-        <v>5.117493272369474e-09</v>
+        <v>86603595.74739529</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.540236</v>
       </c>
       <c r="C71" t="n">
-        <v>4.983608741383085e-09</v>
+        <v>134093443.4719363</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.549804</v>
       </c>
       <c r="C72" t="n">
-        <v>4.962231520434819e-09</v>
+        <v>310739519.4423251</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.560183</v>
       </c>
       <c r="C73" t="n">
-        <v>4.672087655509638e-09</v>
+        <v>756190997.2855797</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570129</v>
       </c>
       <c r="C74" t="n">
-        <v>4.525357450809843e-09</v>
+        <v>720256763.2912265</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580025</v>
       </c>
       <c r="C75" t="n">
-        <v>3.609037567856276e-09</v>
+        <v>378407446.353831</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.590082</v>
       </c>
       <c r="C76" t="n">
-        <v>3.292812958113296e-09</v>
+        <v>191819501.4817066</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.600268</v>
       </c>
       <c r="C77" t="n">
-        <v>2.729662726529358e-09</v>
+        <v>92461314.10098547</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.609989</v>
       </c>
       <c r="C78" t="n">
-        <v>2.058818500757255e-09</v>
+        <v>92765808.87195243</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.620227</v>
       </c>
       <c r="C79" t="n">
-        <v>1.850388661006646e-09</v>
+        <v>63987753.66228212</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.629939</v>
       </c>
       <c r="C80" t="n">
-        <v>1.567224695308594e-09</v>
+        <v>53804526.56682669</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.635173</v>
       </c>
       <c r="C81" t="n">
-        <v>1.479165074931046e-09</v>
+        <v>33886363.30257598</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.482351996269765e-09</v>
+        <v>37914575.59119192</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.649962</v>
       </c>
       <c r="C83" t="n">
-        <v>1.458252684738793e-09</v>
+        <v>78416733.47400312</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>1.394352864601776e-09</v>
+        <v>49196466.52784608</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.680153</v>
       </c>
       <c r="C85" t="n">
-        <v>1.391538141550442e-09</v>
+        <v>21194881.14702871</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.689928</v>
       </c>
       <c r="C86" t="n">
-        <v>1.39738099302842e-09</v>
+        <v>17700135.74496001</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>1.548960740259336e-09</v>
+        <v>15094718.52558636</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.730004</v>
       </c>
       <c r="C88" t="n">
-        <v>1.672745985219723e-09</v>
+        <v>17851697.90956175</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.749999</v>
       </c>
       <c r="C89" t="n">
-        <v>1.74392780137059e-09</v>
+        <v>30233735.20754116</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.755179</v>
       </c>
       <c r="C90" t="n">
-        <v>1.741337850819999e-09</v>
+        <v>68666701.5201516</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.758876</v>
       </c>
       <c r="C91" t="n">
-        <v>1.693084627442909e-09</v>
+        <v>76087927.5238671</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.770038</v>
       </c>
       <c r="C92" t="n">
-        <v>1.583443401365751e-09</v>
+        <v>85673734.55708073</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.775016</v>
       </c>
       <c r="C93" t="n">
-        <v>1.338495551327998e-09</v>
+        <v>86909671.95853867</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780179</v>
       </c>
       <c r="C94" t="n">
-        <v>8.125822674702462e-10</v>
+        <v>75905109.1700004</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.790118</v>
       </c>
       <c r="C95" t="n">
-        <v>6.749096715866302e-10</v>
+        <v>64528832.02761317</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799915</v>
       </c>
       <c r="C96" t="n">
-        <v>5.317685676269557e-10</v>
+        <v>46734572.73590428</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.810027</v>
       </c>
       <c r="C97" t="n">
-        <v>3.987274127167138e-10</v>
+        <v>41261051.92466468</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>3.684713364406227e-10</v>
+        <v>38537780.13036665</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>3.5838091617495e-10</v>
+        <v>38078918.61827746</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.820058</v>
       </c>
       <c r="C100" t="n">
-        <v>3.624265711552183e-10</v>
+        <v>36736160.93643308</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.829886</v>
       </c>
       <c r="C101" t="n">
-        <v>3.427485694257848e-10</v>
+        <v>35619267.44211349</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>3.397148026186298e-10</v>
+        <v>38724759.03009196</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.866293</v>
       </c>
       <c r="C103" t="n">
-        <v>3.409180131304346e-10</v>
+        <v>48988133.15249713</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.889892</v>
       </c>
       <c r="C104" t="n">
-        <v>3.39397940205984e-10</v>
+        <v>73572821.02341844</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.899914</v>
       </c>
       <c r="C105" t="n">
-        <v>3.321297120704061e-10</v>
+        <v>108468691.9203974</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>3.241367018116649e-10</v>
+        <v>138143264.5196675</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.919957</v>
       </c>
       <c r="C107" t="n">
-        <v>3.225577094748338e-10</v>
+        <v>177273727.7489493</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.926154</v>
       </c>
       <c r="C108" t="n">
-        <v>2.878366063495018e-10</v>
+        <v>216090837.3651029</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>2.916716203180936e-10</v>
+        <v>230165375.0268205</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.936923</v>
       </c>
       <c r="C110" t="n">
-        <v>2.928032605083627e-10</v>
+        <v>279659621.3827311</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.946745</v>
       </c>
       <c r="C111" t="n">
-        <v>2.891554740126478e-10</v>
+        <v>331167472.4984803</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.950269</v>
       </c>
       <c r="C112" t="n">
-        <v>2.513716695402983e-10</v>
+        <v>330455945.4372939</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.956763</v>
       </c>
       <c r="C113" t="n">
-        <v>2.151234408728859e-10</v>
+        <v>361951188.9833449</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869</v>
       </c>
       <c r="C114" t="n">
-        <v>2.015670748388851e-10</v>
+        <v>363202117.2132817</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.964748</v>
       </c>
       <c r="C115" t="n">
-        <v>1.957340387742019e-10</v>
+        <v>356977537.0159414</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.967875</v>
       </c>
       <c r="C116" t="n">
-        <v>2.397086667634343e-10</v>
+        <v>347149943.8332583</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.970043</v>
       </c>
       <c r="C117" t="n">
-        <v>4.09386811580502e-10</v>
+        <v>344666048.1336283</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>4.989456694537157e-10</v>
+        <v>324366827.8777167</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.974629</v>
       </c>
       <c r="C119" t="n">
-        <v>5.25622740435393e-10</v>
+        <v>313964811.619384</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.984706</v>
       </c>
       <c r="C120" t="n">
-        <v>5.320142247815183e-10</v>
+        <v>248943251.8811734</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990074</v>
       </c>
       <c r="C121" t="n">
-        <v>5.385964076512397e-10</v>
+        <v>226373278.3258213</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669</v>
       </c>
       <c r="C122" t="n">
-        <v>5.407827500992424e-10</v>
+        <v>187481980.0368077</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.004642</v>
       </c>
       <c r="C123" t="n">
-        <v>5.133727324223109e-10</v>
+        <v>140453829.5151672</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>4.677299058496526e-10</v>
+        <v>125838852.4247451</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.014843</v>
       </c>
       <c r="C125" t="n">
-        <v>2.843069452068538e-10</v>
+        <v>106469799.3580995</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.017737</v>
       </c>
       <c r="C126" t="n">
-        <v>1.743227872605552e-10</v>
+        <v>100213983.8653301</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.017861</v>
       </c>
       <c r="C127" t="n">
-        <v>1.492483961297062e-10</v>
+        <v>100493241.003505</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019822</v>
       </c>
       <c r="C128" t="n">
-        <v>1.622806984123895e-10</v>
+        <v>98900316.36871079</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>2.213728540303059e-10</v>
+        <v>94120405.40246956</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027826</v>
       </c>
       <c r="C130" t="n">
-        <v>2.445758340711682e-10</v>
+        <v>93906532.83792306</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.030101</v>
       </c>
       <c r="C131" t="n">
-        <v>3.636758507442049e-10</v>
+        <v>93941529.85602602</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032781</v>
       </c>
       <c r="C132" t="n">
-        <v>4.70132460889258e-10</v>
+        <v>104080141.8097315</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.035899</v>
       </c>
       <c r="C133" t="n">
-        <v>4.821558092272792e-10</v>
+        <v>112103951.8816211</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>4.572825750846428e-10</v>
+        <v>116687647.4795262</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041981</v>
       </c>
       <c r="C135" t="n">
-        <v>4.068485080741013e-10</v>
+        <v>116528546.8139097</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.044789</v>
       </c>
       <c r="C136" t="n">
-        <v>4.028252508580565e-10</v>
+        <v>112878680.4879537</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.049971</v>
       </c>
       <c r="C137" t="n">
-        <v>3.557885636487179e-10</v>
+        <v>105313078.654281</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.054843</v>
       </c>
       <c r="C138" t="n">
-        <v>2.984035787588968e-10</v>
+        <v>88884144.40240678</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.064876</v>
       </c>
       <c r="C139" t="n">
-        <v>2.690442110700528e-10</v>
+        <v>53596278.60211859</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.069912</v>
       </c>
       <c r="C140" t="n">
-        <v>2.624541223198237e-10</v>
+        <v>44286054.70788396</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.074481</v>
       </c>
       <c r="C141" t="n">
-        <v>2.564029701437773e-10</v>
+        <v>34959802.98690034</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.084189</v>
       </c>
       <c r="C142" t="n">
-        <v>2.522060692112934e-10</v>
+        <v>26079324.38020019</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.089986</v>
       </c>
       <c r="C143" t="n">
-        <v>2.34822078384837e-10</v>
+        <v>23938367.79006168</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093717</v>
       </c>
       <c r="C144" t="n">
-        <v>2.593789003032908e-10</v>
+        <v>23152472.22587861</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>2.952430024304131e-10</v>
+        <v>23477846.49539044</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.098893</v>
       </c>
       <c r="C146" t="n">
-        <v>3.306508561133483e-10</v>
+        <v>22201612.64289089</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.099991</v>
       </c>
       <c r="C147" t="n">
-        <v>3.69122709086108e-10</v>
+        <v>22102399.62874303</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>4.220863415872147e-10</v>
+        <v>22099794.73555094</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100713</v>
       </c>
       <c r="C149" t="n">
-        <v>4.697793910303374e-10</v>
+        <v>21981133.87626238</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.102879</v>
       </c>
       <c r="C150" t="n">
-        <v>4.479165511218394e-10</v>
+        <v>21447704.74290513</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.104856</v>
       </c>
       <c r="C151" t="n">
-        <v>4.462488111442451e-10</v>
+        <v>20828283.39616516</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.106897</v>
       </c>
       <c r="C152" t="n">
-        <v>3.95129558402157e-10</v>
+        <v>20710276.31783224</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.108781</v>
       </c>
       <c r="C153" t="n">
-        <v>3.879580299377191e-10</v>
+        <v>18625150.40807338</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110037</v>
       </c>
       <c r="C154" t="n">
-        <v>3.403832962647506e-10</v>
+        <v>18757100.70008576</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>3.251510863848343e-10</v>
+        <v>18889583.86340568</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.113839</v>
       </c>
       <c r="C156" t="n">
-        <v>3.165793234339281e-10</v>
+        <v>18571166.75648515</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.118804</v>
       </c>
       <c r="C157" t="n">
-        <v>3.993847687298726e-10</v>
+        <v>16116457.79952336</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123773</v>
       </c>
       <c r="C158" t="n">
-        <v>3.476642836497121e-10</v>
+        <v>13831469.43041965</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.128523</v>
       </c>
       <c r="C159" t="n">
-        <v>3.63630262702071e-10</v>
+        <v>12826304.15897592</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.129939</v>
       </c>
       <c r="C160" t="n">
-        <v>3.279786523463435e-10</v>
+        <v>12445882.11931007</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.133811</v>
       </c>
       <c r="C161" t="n">
-        <v>3.05966292243426e-10</v>
+        <v>15192361.59042616</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.138881</v>
       </c>
       <c r="C162" t="n">
-        <v>2.889578952745641e-10</v>
+        <v>26095300.89254684</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.141653</v>
       </c>
       <c r="C163" t="n">
-        <v>2.701595888942531e-10</v>
+        <v>31486913.45073154</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>2.48404815090813e-10</v>
+        <v>33173205.71384259</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.147988</v>
       </c>
       <c r="C165" t="n">
-        <v>2.505409040897063e-10</v>
+        <v>33448714.57006103</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>1.269969248520418e-10</v>
+        <v>33855962.19614904</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150983</v>
       </c>
       <c r="C167" t="n">
-        <v>5.17706100567087e-11</v>
+        <v>34026286.86421523</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>3.183651869392184e-11</v>
+        <v>32152391.66923334</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.159375</v>
       </c>
       <c r="C169" t="n">
-        <v>4.487751602667823e-11</v>
+        <v>29340403.93277219</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.170048</v>
       </c>
       <c r="C170" t="n">
-        <v>2.786904021146972e-11</v>
+        <v>17699160.38335504</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.189844</v>
       </c>
       <c r="C171" t="n">
-        <v>2.2522190238379e-11</v>
+        <v>10726338.03764398</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210028</v>
       </c>
       <c r="C172" t="n">
-        <v>1.906146427773834e-11</v>
+        <v>9097624.510941511</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.230028</v>
       </c>
       <c r="C173" t="n">
-        <v>1.949652115012788e-11</v>
+        <v>9785293.118540574</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>2.650843264540649e-11</v>
+        <v>13297277.09825501</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.243064</v>
       </c>
       <c r="C175" t="n">
-        <v>4.809093690490912e-11</v>
+        <v>14587214.62642106</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.250129</v>
       </c>
       <c r="C176" t="n">
-        <v>5.214249824065675e-11</v>
+        <v>21592832.09483356</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>4.427343528989402e-11</v>
+        <v>28005686.66814039</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>3.905998322564727e-11</v>
+        <v>28454275.83970733</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.269983</v>
+      </c>
+      <c r="C179" t="n">
+        <v>26928156.45913155</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>23846521.18941244</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.275024</v>
+      </c>
+      <c r="C181" t="n">
+        <v>23667208.79752429</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279812000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>20849109.68903358</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.284953</v>
+      </c>
+      <c r="C183" t="n">
+        <v>17418557.71949643</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.290161</v>
+      </c>
+      <c r="C184" t="n">
+        <v>15718832.21896228</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.292942</v>
+      </c>
+      <c r="C185" t="n">
+        <v>15385623.52223434</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.297674</v>
+      </c>
+      <c r="C186" t="n">
+        <v>14922300.90475253</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.299721</v>
+      </c>
+      <c r="C187" t="n">
+        <v>14648554.50222146</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.302376000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>13648244.0121824</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.308233</v>
+      </c>
+      <c r="C189" t="n">
+        <v>14998450.82958337</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312876</v>
+      </c>
+      <c r="C190" t="n">
+        <v>17034255.87780836</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.317521</v>
+      </c>
+      <c r="C191" t="n">
+        <v>18988171.73003284</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.322808999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>21079580.817963</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.327683</v>
+      </c>
+      <c r="C193" t="n">
+        <v>24062728.40602461</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>26748335.85757056</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.332912</v>
+      </c>
+      <c r="C195" t="n">
+        <v>25494697.30261428</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.337469</v>
+      </c>
+      <c r="C196" t="n">
+        <v>25265694.36967738</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.342735</v>
+      </c>
+      <c r="C197" t="n">
+        <v>22370312.3082191</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.342928</v>
+      </c>
+      <c r="C198" t="n">
+        <v>21956619.82212161</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.346943</v>
+      </c>
+      <c r="C199" t="n">
+        <v>19252023.69566288</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.348261</v>
+      </c>
+      <c r="C200" t="n">
+        <v>18370853.71993746</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.348582</v>
+      </c>
+      <c r="C201" t="n">
+        <v>17887169.14920968</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.352053</v>
+      </c>
+      <c r="C202" t="n">
+        <v>22491345.84284339</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.353596</v>
+      </c>
+      <c r="C203" t="n">
+        <v>19545426.43411982</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.357905000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>20352204.04767074</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359834999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>18394523.06543726</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.361894</v>
+      </c>
+      <c r="C206" t="n">
+        <v>17142713.62269782</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.363857</v>
+      </c>
+      <c r="C207" t="n">
+        <v>16160975.02708657</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.366045</v>
+      </c>
+      <c r="C208" t="n">
+        <v>15058318.74199034</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368041000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>13856574.69556724</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.369651</v>
+      </c>
+      <c r="C210" t="n">
+        <v>13998618.15965994</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.374804</v>
+      </c>
+      <c r="C211" t="n">
+        <v>7082009.725531791</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.380088</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2866599.001459452</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382924</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1759972.846653195</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.383343</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2483362.731609336</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383858999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1541134.113974629</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.385955</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1241764.357906727</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.389858</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1041495.181537119</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.393084</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1050633.433862672</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.403415</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1453804.913433005</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.414078</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2611372.505544065</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.424364</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2816413.510181738</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.435405</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2377870.389191711</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.439261</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2090983.532808174</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints3.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints3.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.996021</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>15289272.79675044</v>
+        <v>2.72065161805603e-10</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.000967</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>26088591.96424293</v>
+        <v>3.292964383492657e-10</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>36415078.62040134</v>
+        <v>4.63433942000625e-10</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.006972</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>36075101.19024194</v>
+        <v>6.603321166980065e-10</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.009086</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>44173518.11285675</v>
+        <v>8.791459050740458e-10</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.010032</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>42078813.21580025</v>
+        <v>1.74995980449962e-09</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>40223833.86911188</v>
+        <v>2.882574087268838e-09</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.019108</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>43475299.79789714</v>
+        <v>7.660547856021538e-09</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.019916</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>30782765.44638494</v>
+        <v>1.216655083373422e-08</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.025044</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>38531185.70234352</v>
+        <v>1.308030879093066e-08</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.029979</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>42461961.41211762</v>
+        <v>1.0257945901653e-08</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.035141</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>26968044.39286161</v>
+        <v>5.18316564397216e-09</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.269958</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>22033284.09097605</v>
+        <v>3.979155151838436e-09</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.290051</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>16173607.60465526</v>
+        <v>5.006490430356448e-09</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291116000000001</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>17397233.54325239</v>
+        <v>2.226716949935411e-09</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.293189</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>14661431.56850048</v>
+        <v>1.568127121515427e-09</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.294196</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>15139719.85323733</v>
+        <v>9.049705777122836e-10</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.295147</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>19134159.58421979</v>
+        <v>4.791715547638473e-10</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.296155000000001</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>15771231.39972823</v>
+        <v>3.646223596916794e-10</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>18758219.77770979</v>
+        <v>3.608144876191758e-10</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298083999999999</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>33696202.36918826</v>
+        <v>4.38041084847019e-10</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299093</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>39212214.81990076</v>
+        <v>5.427405909380875e-10</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.301051999999999</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>54501441.20441652</v>
+        <v>5.174133621042385e-10</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.303098</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>57519433.05117834</v>
+        <v>1.051695979152483e-09</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.305231</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>53951448.06610803</v>
+        <v>1.616885933915744e-09</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>59105177.95142701</v>
+        <v>3.661531838869434e-09</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.309297</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>57528300.79373005</v>
+        <v>9.036536410491459e-09</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.309961</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>56902031.29625873</v>
+        <v>8.691793636810151e-09</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.311172</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>55729200.16741797</v>
+        <v>4.510545557461628e-09</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.313105999999999</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>56296782.71880147</v>
+        <v>2.327430130245446e-09</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.315126</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>52501471.65502061</v>
+        <v>1.141169980207612e-09</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.317204</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>49274801.17111345</v>
+        <v>1.133504653046263e-09</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.319168</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>55452195.79183661</v>
+        <v>7.576986781128784e-10</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>49090234.81479719</v>
+        <v>6.878055101952917e-10</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>46754418.7025213</v>
+        <v>4.081929160072882e-10</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.325205</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>31340859.75791851</v>
+        <v>4.855448653688315e-10</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.327112000000001</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>30984630.67275303</v>
+        <v>1.005558068212145e-09</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.329078</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>29116135.34920491</v>
+        <v>6.355328188351267e-10</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.330119</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>31060026.02595051</v>
+        <v>2.774933691379396e-10</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.331189</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>46220737.0162213</v>
+        <v>2.420670977752602e-10</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.333242</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>47332892.50010905</v>
+        <v>2.050308581750688e-10</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.335151000000001</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>43276867.65306412</v>
+        <v>2.367167749412828e-10</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.340042</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>38601505.20318118</v>
+        <v>4.145839976244792e-10</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.344876999999999</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>39825806.28744446</v>
+        <v>9.233789497039723e-10</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.349976</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>38196604.94206274</v>
+        <v>1.027725170847884e-09</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.370053</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>23674062.88743217</v>
+        <v>1.163384653219589e-09</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.390148</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>29515753.69199551</v>
+        <v>1.175544886974259e-09</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.410025</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>41173196.97170698</v>
+        <v>1.022515378349847e-09</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.420244</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>57884073.37754584</v>
+        <v>8.873665830164548e-10</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.430182</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>76643107.33874084</v>
+        <v>6.514490283662636e-10</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.440043</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>155346529.8991774</v>
+        <v>5.85366043782463e-10</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.449945</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>254119337.9498669</v>
+        <v>5.415064872229279e-10</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.454988</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>687228711.3211352</v>
+        <v>5.357022329437186e-10</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.460121</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>1091198140.845172</v>
+        <v>5.165985872094107e-10</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469957</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>1158812047.397109</v>
+        <v>5.023491027793011e-10</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477981</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>908392951.889979</v>
+        <v>5.517442317642927e-10</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.486129</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>458669997.4102208</v>
+        <v>7.051182117111255e-10</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.488189</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>349007390.6071434</v>
+        <v>1.065907505010838e-09</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490073000000001</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>438573323.760477</v>
+        <v>1.555279417676007e-09</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.492223</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>192000364.6767456</v>
+        <v>1.998492905192181e-09</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.494992</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>137185091.6599101</v>
+        <v>2.570780086618201e-09</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499972000000001</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>77785121.44786644</v>
+        <v>3.137816758884255e-09</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.510205</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>39595927.55289823</v>
+        <v>3.345368465557318e-09</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.512183</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>30220832.92004775</v>
+        <v>4.083437653565189e-09</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.515076000000001</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>30426929.37311525</v>
+        <v>4.849085438105431e-09</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.520067</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>35373924.1635855</v>
+        <v>4.856248883576451e-09</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.525238</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>45395022.02144845</v>
+        <v>5.325568070053791e-09</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529406</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>43376274.41246297</v>
+        <v>5.363260913134459e-09</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.535056</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>86603595.74739529</v>
+        <v>5.284825574696844e-09</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.540236</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>134093443.4719363</v>
+        <v>5.144914339218845e-09</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.549804</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>310739519.4423251</v>
+        <v>5.108001295543815e-09</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.560183</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>756190997.2855797</v>
+        <v>4.811156364321647e-09</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570129</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>720256763.2912265</v>
+        <v>4.671221019672743e-09</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580025</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>378407446.353831</v>
+        <v>3.727849996616369e-09</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.590082</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>191819501.4817066</v>
+        <v>3.404220017364752e-09</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.600268</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>92461314.10098547</v>
+        <v>2.824054697856043e-09</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.609989</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>92765808.87195243</v>
+        <v>2.127629286568708e-09</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.620227</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>63987753.66228212</v>
+        <v>1.915991889675213e-09</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.629939</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>53804526.56682669</v>
+        <v>1.6281798897774e-09</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.635173</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>33886363.30257598</v>
+        <v>1.53459390504812e-09</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>37914575.59119192</v>
+        <v>1.541286580004244e-09</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.649962</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>78416733.47400312</v>
+        <v>1.518570107581287e-09</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.670119000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>49196466.52784608</v>
+        <v>1.446908534705977e-09</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.680153</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>21194881.14702871</v>
+        <v>1.447880052279018e-09</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.689928</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>17700135.74496001</v>
+        <v>1.455307190503931e-09</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>15094718.52558636</v>
+        <v>1.601057912030128e-09</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.730004</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>17851697.90956175</v>
+        <v>1.734077976262887e-09</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.749999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>30233735.20754116</v>
+        <v>1.80621252568847e-09</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.755179</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>68666701.5201516</v>
+        <v>1.810528556005101e-09</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.758876</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>76087927.5238671</v>
+        <v>1.750350995101148e-09</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.770038</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>85673734.55708073</v>
+        <v>1.637312514270633e-09</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.775016</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>86909671.95853867</v>
+        <v>1.390018097003121e-09</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780179</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>75905109.1700004</v>
+        <v>8.45813490662796e-10</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.790118</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>64528832.02761317</v>
+        <v>7.016879752506297e-10</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799915</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>46734572.73590428</v>
+        <v>5.597963704817419e-10</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.810027</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>41261051.92466468</v>
+        <v>4.208569309548883e-10</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>38537780.13036665</v>
+        <v>3.901975469712995e-10</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>38078918.61827746</v>
+        <v>3.788528852879453e-10</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.820058</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>36736160.93643308</v>
+        <v>3.842052495770341e-10</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.829886</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>35619267.44211349</v>
+        <v>3.628028115569552e-10</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>38724759.03009196</v>
+        <v>3.612027609712774e-10</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.866293</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>48988133.15249713</v>
+        <v>3.635685700271902e-10</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.889892</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>73572821.02341844</v>
+        <v>3.587297144909172e-10</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.899914</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>108468691.9203974</v>
+        <v>3.493300687665776e-10</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>138143264.5196675</v>
+        <v>3.383406076548033e-10</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.919957</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>177273727.7489493</v>
+        <v>3.31938087318549e-10</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.926154</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>216090837.3651029</v>
+        <v>3.097248399976771e-10</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930194999999999</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>230165375.0268205</v>
+        <v>3.107296097521807e-10</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.936923</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>279659621.3827311</v>
+        <v>3.155991666444206e-10</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.946745</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>331167472.4984803</v>
+        <v>3.092923878278736e-10</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.950269</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>330455945.4372939</v>
+        <v>2.688773549891441e-10</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.956763</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>361951188.9833449</v>
+        <v>2.332675433113782e-10</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>363202117.2132817</v>
+        <v>2.167157259003856e-10</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.964748</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>356977537.0159414</v>
+        <v>2.09641283005509e-10</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.967875</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>347149943.8332583</v>
+        <v>2.591361074942804e-10</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.970043</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>344666048.1336283</v>
+        <v>4.372350072682654e-10</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>324366827.8777167</v>
+        <v>5.238787078875818e-10</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.974629</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>313964811.619384</v>
+        <v>5.538719485079928e-10</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.984706</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>248943251.8811734</v>
+        <v>5.571086461988634e-10</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990074</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>226373278.3258213</v>
+        <v>5.695222324806837e-10</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>187481980.0368077</v>
+        <v>5.699857424166466e-10</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.004642</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>140453829.5151672</v>
+        <v>5.387400422423611e-10</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>125838852.4247451</v>
+        <v>4.941321436565693e-10</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.014843</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>106469799.3580995</v>
+        <v>3.011680691179546e-10</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.017737</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>100213983.8653301</v>
+        <v>1.857359631675575e-10</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.017861</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>100493241.003505</v>
+        <v>1.612120265130458e-10</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019822</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>98900316.36871079</v>
+        <v>1.725344892306507e-10</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.024805000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>94120405.40246956</v>
+        <v>2.365245770080708e-10</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027826</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>93906532.83792306</v>
+        <v>2.596808721782389e-10</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.030101</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>93941529.85602602</v>
+        <v>3.822082602555421e-10</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032781</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>104080141.8097315</v>
+        <v>4.930534405179109e-10</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.035899</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>112103951.8816211</v>
+        <v>5.089159816100973e-10</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.038705999999999</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>116687647.4795262</v>
+        <v>4.796057419820086e-10</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041981</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>116528546.8139097</v>
+        <v>4.229632983131974e-10</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.044789</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>112878680.4879537</v>
+        <v>3.710983503949921e-10</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.049971</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>105313078.654281</v>
+        <v>3.11567382461918e-10</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.054843</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>88884144.40240678</v>
+        <v>2.845370229030086e-10</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.064876</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>53596278.60211859</v>
+        <v>2.817320434702494e-10</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.069912</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>44286054.70788396</v>
+        <v>2.672062486177032e-10</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.074481</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>34959802.98690034</v>
+        <v>2.650177144147419e-10</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.084189</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>26079324.38020019</v>
+        <v>2.540572935011222e-10</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.089986</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>23938367.79006168</v>
+        <v>2.756246668970935e-10</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093717</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>23152472.22587861</v>
+        <v>3.12912359145573e-10</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>23477846.49539044</v>
+        <v>3.476573122776098e-10</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.098893</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>22201612.64289089</v>
+        <v>3.871971686174996e-10</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.099991</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>22102399.62874303</v>
+        <v>4.404963928272212e-10</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.100430999999999</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>22099794.73555094</v>
+        <v>4.790102215580789e-10</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100713</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>21981133.87626238</v>
+        <v>4.626826813286149e-10</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.102879</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>21447704.74290513</v>
+        <v>4.126310357565533e-10</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.104856</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>20828283.39616516</v>
+        <v>4.054805233406679e-10</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.106897</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>20710276.31783224</v>
+        <v>3.56880851219296e-10</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.108781</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>18625150.40807338</v>
+        <v>3.41087241049207e-10</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110037</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>18757100.70008576</v>
+        <v>3.325646545363248e-10</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>18889583.86340568</v>
+        <v>4.161440736999023e-10</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.113839</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>18571166.75648515</v>
+        <v>3.641412287997132e-10</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.118804</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>16116457.79952336</v>
+        <v>3.793964629536455e-10</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123773</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>13831469.43041965</v>
+        <v>3.435763473676555e-10</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.128523</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>12826304.15897592</v>
+        <v>3.208603399633391e-10</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.129939</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>12445882.11931007</v>
+        <v>3.037960047505338e-10</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.133811</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>15192361.59042616</v>
+        <v>2.801751335167983e-10</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.138881</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>26095300.89254684</v>
+        <v>2.608947246704679e-10</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.141653</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>31486913.45073154</v>
+        <v>2.654560726873414e-10</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144741000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>33173205.71384259</v>
+        <v>1.362138105395509e-10</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.147988</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>33448714.57006103</v>
+        <v>5.585296582577778e-11</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.150005999999999</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>33855962.19614904</v>
+        <v>3.354141129683245e-11</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150983</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>34026286.86421523</v>
+        <v>4.826207054829699e-11</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>32152391.66923334</v>
+        <v>3.003131389254333e-11</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.159375</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>29340403.93277219</v>
+        <v>2.396934008293049e-11</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.170048</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>17699160.38335504</v>
+        <v>2.000659785444846e-11</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.189844</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>10726338.03764398</v>
+        <v>2.00782158024204e-11</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210028</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>9097624.510941511</v>
+        <v>2.882090702108341e-11</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.230028</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>9785293.118540574</v>
+        <v>5.164578431456823e-11</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.239501000000001</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>13297277.09825501</v>
+        <v>5.610477680899545e-11</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.243064</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>14587214.62642106</v>
+        <v>4.744338189194709e-11</v>
       </c>
     </row>
     <row r="176">
@@ -2297,527 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.250129</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>21592832.09483356</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.25994</v>
-      </c>
-      <c r="C177" t="n">
-        <v>28005686.66814039</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.26504</v>
-      </c>
-      <c r="C178" t="n">
-        <v>28454275.83970733</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.269983</v>
-      </c>
-      <c r="C179" t="n">
-        <v>26928156.45913155</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>23846521.18941244</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.275024</v>
-      </c>
-      <c r="C181" t="n">
-        <v>23667208.79752429</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279812000000001</v>
-      </c>
-      <c r="C182" t="n">
-        <v>20849109.68903358</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.284953</v>
-      </c>
-      <c r="C183" t="n">
-        <v>17418557.71949643</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.290161</v>
-      </c>
-      <c r="C184" t="n">
-        <v>15718832.21896228</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.292942</v>
-      </c>
-      <c r="C185" t="n">
-        <v>15385623.52223434</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.297674</v>
-      </c>
-      <c r="C186" t="n">
-        <v>14922300.90475253</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.299721</v>
-      </c>
-      <c r="C187" t="n">
-        <v>14648554.50222146</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.302376000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>13648244.0121824</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.308233</v>
-      </c>
-      <c r="C189" t="n">
-        <v>14998450.82958337</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312876</v>
-      </c>
-      <c r="C190" t="n">
-        <v>17034255.87780836</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.317521</v>
-      </c>
-      <c r="C191" t="n">
-        <v>18988171.73003284</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.322808999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>21079580.817963</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.327683</v>
-      </c>
-      <c r="C193" t="n">
-        <v>24062728.40602461</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>26748335.85757056</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.332912</v>
-      </c>
-      <c r="C195" t="n">
-        <v>25494697.30261428</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.337469</v>
-      </c>
-      <c r="C196" t="n">
-        <v>25265694.36967738</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.342735</v>
-      </c>
-      <c r="C197" t="n">
-        <v>22370312.3082191</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.342928</v>
-      </c>
-      <c r="C198" t="n">
-        <v>21956619.82212161</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.346943</v>
-      </c>
-      <c r="C199" t="n">
-        <v>19252023.69566288</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.348261</v>
-      </c>
-      <c r="C200" t="n">
-        <v>18370853.71993746</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.348582</v>
-      </c>
-      <c r="C201" t="n">
-        <v>17887169.14920968</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.352053</v>
-      </c>
-      <c r="C202" t="n">
-        <v>22491345.84284339</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.353596</v>
-      </c>
-      <c r="C203" t="n">
-        <v>19545426.43411982</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.357905000000001</v>
-      </c>
-      <c r="C204" t="n">
-        <v>20352204.04767074</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359834999999999</v>
-      </c>
-      <c r="C205" t="n">
-        <v>18394523.06543726</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.361894</v>
-      </c>
-      <c r="C206" t="n">
-        <v>17142713.62269782</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.363857</v>
-      </c>
-      <c r="C207" t="n">
-        <v>16160975.02708657</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.366045</v>
-      </c>
-      <c r="C208" t="n">
-        <v>15058318.74199034</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368041000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>13856574.69556724</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.369651</v>
-      </c>
-      <c r="C210" t="n">
-        <v>13998618.15965994</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.374804</v>
-      </c>
-      <c r="C211" t="n">
-        <v>7082009.725531791</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.380088</v>
-      </c>
-      <c r="C212" t="n">
-        <v>2866599.001459452</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382924</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1759972.846653195</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.383343</v>
-      </c>
-      <c r="C214" t="n">
-        <v>2483362.731609336</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383858999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1541134.113974629</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.385955</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1241764.357906727</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.389858</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1041495.181537119</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.393084</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1050633.433862672</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.403415</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1453804.913433005</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.414078</v>
-      </c>
-      <c r="C220" t="n">
-        <v>2611372.505544065</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.424364</v>
-      </c>
-      <c r="C221" t="n">
-        <v>2816413.510181738</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="C222" t="n">
-        <v>2377870.389191711</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="C223" t="n">
-        <v>2090983.532808174</v>
+        <v>4.184931561325514e-11</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints3.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints3.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>2.72065161805603e-10</v>
+        <v>1.423647943132081e-10</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>3.292964383492657e-10</v>
+        <v>2.042703031660812e-10</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>4.63433942000625e-10</v>
+        <v>3.306921587523225e-10</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>6.603321166980065e-10</v>
+        <v>5.45474899524742e-10</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>8.791459050740458e-10</v>
+        <v>7.897318847315112e-10</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>1.74995980449962e-09</v>
+        <v>1.604989447333299e-09</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>2.882574087268838e-09</v>
+        <v>2.797274804175657e-09</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>7.660547856021538e-09</v>
+        <v>7.479187719935153e-09</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>1.216655083373422e-08</v>
+        <v>1.191179090422027e-08</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>1.308030879093066e-08</v>
+        <v>1.298287572223885e-08</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0257945901653e-08</v>
+        <v>1.012385309348807e-08</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>5.18316564397216e-09</v>
+        <v>5.132916608778746e-09</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>3.979155151838436e-09</v>
+        <v>3.861982346700209e-09</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>5.006490430356448e-09</v>
+        <v>4.94350140943343e-09</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>2.226716949935411e-09</v>
+        <v>2.125389094552011e-09</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>1.568127121515427e-09</v>
+        <v>1.498485885970348e-09</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>9.049705777122836e-10</v>
+        <v>7.828612685750671e-10</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>4.791715547638473e-10</v>
+        <v>3.875154495131944e-10</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>3.646223596916794e-10</v>
+        <v>2.929031644963426e-10</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>3.608144876191758e-10</v>
+        <v>2.74080728075776e-10</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>4.38041084847019e-10</v>
+        <v>3.723400147538874e-10</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>5.427405909380875e-10</v>
+        <v>5.148652859741693e-10</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>5.174133621042385e-10</v>
+        <v>4.356440100603023e-10</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>1.051695979152483e-09</v>
+        <v>9.122326018695088e-10</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>1.616885933915744e-09</v>
+        <v>1.432164325421736e-09</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>3.661531838869434e-09</v>
+        <v>3.627508304749329e-09</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>9.036536410491459e-09</v>
+        <v>8.982556023638608e-09</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>8.691793636810151e-09</v>
+        <v>8.580725385107367e-09</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>4.510545557461628e-09</v>
+        <v>4.483183966865717e-09</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>2.327430130245446e-09</v>
+        <v>2.245685711614439e-09</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>1.141169980207612e-09</v>
+        <v>1.092118332331673e-09</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>1.133504653046263e-09</v>
+        <v>1.078613250752316e-09</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>7.576986781128784e-10</v>
+        <v>7.78974358414276e-10</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>6.878055101952917e-10</v>
+        <v>5.276970773519106e-10</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>4.081929160072882e-10</v>
+        <v>4.005167126875537e-10</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>4.855448653688315e-10</v>
+        <v>4.698880701726305e-10</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>1.005558068212145e-09</v>
+        <v>9.888110737286813e-10</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>6.355328188351267e-10</v>
+        <v>6.246236994526097e-10</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>2.774933691379396e-10</v>
+        <v>2.544108539224306e-10</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>2.420670977752602e-10</v>
+        <v>2.122054845565093e-10</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>2.050308581750688e-10</v>
+        <v>1.906012560876028e-10</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>2.367167749412828e-10</v>
+        <v>2.164049723079724e-10</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>4.145839976244792e-10</v>
+        <v>4.066840863955084e-10</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>9.233789497039723e-10</v>
+        <v>9.103621022415302e-10</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>1.027725170847884e-09</v>
+        <v>1.01337263924214e-09</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>1.163384653219589e-09</v>
+        <v>1.163252938713433e-09</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>1.175544886974259e-09</v>
+        <v>1.170566046689792e-09</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>1.022515378349847e-09</v>
+        <v>1.008699627834903e-09</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>8.873665830164548e-10</v>
+        <v>8.732932117858293e-10</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>6.514490283662636e-10</v>
+        <v>6.549298154142889e-10</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>5.85366043782463e-10</v>
+        <v>5.799430632645816e-10</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>5.415064872229279e-10</v>
+        <v>5.475165503698393e-10</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>5.357022329437186e-10</v>
+        <v>5.2708354752924e-10</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>5.165985872094107e-10</v>
+        <v>4.953860842374106e-10</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>5.023491027793011e-10</v>
+        <v>4.834647491024901e-10</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>5.517442317642927e-10</v>
+        <v>5.43742608944153e-10</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>7.051182117111255e-10</v>
+        <v>6.952183054901549e-10</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>1.065907505010838e-09</v>
+        <v>1.066227543039465e-09</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>1.555279417676007e-09</v>
+        <v>1.563380067886571e-09</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>1.998492905192181e-09</v>
+        <v>2.006771057386447e-09</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>2.570780086618201e-09</v>
+        <v>2.577381635414486e-09</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>3.137816758884255e-09</v>
+        <v>3.152320311015333e-09</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>3.345368465557318e-09</v>
+        <v>3.351047326042148e-09</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>4.083437653565189e-09</v>
+        <v>4.087406423269786e-09</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>4.849085438105431e-09</v>
+        <v>4.874785027216898e-09</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>4.856248883576451e-09</v>
+        <v>4.871289621447911e-09</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>5.325568070053791e-09</v>
+        <v>5.3850999449327e-09</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>5.363260913134459e-09</v>
+        <v>5.376609069986483e-09</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>5.284825574696844e-09</v>
+        <v>5.320943951051019e-09</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>5.144914339218845e-09</v>
+        <v>5.168665810997671e-09</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>5.108001295543815e-09</v>
+        <v>5.117231824304193e-09</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>4.811156364321647e-09</v>
+        <v>4.859070826238084e-09</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>4.671221019672743e-09</v>
+        <v>4.689072656972797e-09</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>3.727849996616369e-09</v>
+        <v>3.759606821004835e-09</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>3.404220017364752e-09</v>
+        <v>3.405324550638462e-09</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>2.824054697856043e-09</v>
+        <v>2.83326922326984e-09</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>2.127629286568708e-09</v>
+        <v>2.140806381275591e-09</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>1.915991889675213e-09</v>
+        <v>1.925660944675498e-09</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>1.6281798897774e-09</v>
+        <v>1.631841643991255e-09</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>1.53459390504812e-09</v>
+        <v>1.541321619131703e-09</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>1.541286580004244e-09</v>
+        <v>1.545183385439433e-09</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>1.518570107581287e-09</v>
+        <v>1.523502925858448e-09</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>1.446908534705977e-09</v>
+        <v>1.450109568223975e-09</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>1.447880052279018e-09</v>
+        <v>1.449857621497348e-09</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>1.455307190503931e-09</v>
+        <v>1.456367487707378e-09</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>1.601057912030128e-09</v>
+        <v>1.607349541139004e-09</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>1.734077976262887e-09</v>
+        <v>1.734249261238201e-09</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>1.80621252568847e-09</v>
+        <v>1.805209143608649e-09</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>1.810528556005101e-09</v>
+        <v>1.811243795227128e-09</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>1.750350995101148e-09</v>
+        <v>1.755842246180052e-09</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>1.637312514270633e-09</v>
+        <v>1.636189778894408e-09</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>1.390018097003121e-09</v>
+        <v>1.397222895458286e-09</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>8.45813490662796e-10</v>
+        <v>8.511691466644285e-10</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>7.016879752506297e-10</v>
+        <v>7.09059852956412e-10</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>5.597963704817419e-10</v>
+        <v>5.627011267796665e-10</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>4.208569309548883e-10</v>
+        <v>4.232781786505243e-10</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>3.901975469712995e-10</v>
+        <v>3.908014665104899e-10</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>3.788528852879453e-10</v>
+        <v>3.789802151514041e-10</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>3.842052495770341e-10</v>
+        <v>3.819690728417845e-10</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>3.628028115569552e-10</v>
+        <v>3.603783334070926e-10</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>3.612027609712774e-10</v>
+        <v>3.614637270382226e-10</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>3.635685700271902e-10</v>
+        <v>3.609392973344396e-10</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>3.587297144909172e-10</v>
+        <v>3.59222829570507e-10</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>3.493300687665776e-10</v>
+        <v>3.525380888080764e-10</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>3.383406076548033e-10</v>
+        <v>3.36828217418781e-10</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>3.31938087318549e-10</v>
+        <v>3.313443271411771e-10</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>3.097248399976771e-10</v>
+        <v>3.081067780988701e-10</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>3.107296097521807e-10</v>
+        <v>3.080271706210222e-10</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>3.155991666444206e-10</v>
+        <v>3.151902325346654e-10</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>3.092923878278736e-10</v>
+        <v>3.047181552396281e-10</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>2.688773549891441e-10</v>
+        <v>2.665180526819508e-10</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>2.332675433113782e-10</v>
+        <v>2.342773681644908e-10</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>2.167157259003856e-10</v>
+        <v>2.167277169533707e-10</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>2.09641283005509e-10</v>
+        <v>2.124588796761783e-10</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>2.591361074942804e-10</v>
+        <v>2.581925578348955e-10</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>4.372350072682654e-10</v>
+        <v>4.352363535482861e-10</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>5.238787078875818e-10</v>
+        <v>5.243389095814377e-10</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>5.538719485079928e-10</v>
+        <v>5.523767062552798e-10</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>5.571086461988634e-10</v>
+        <v>5.563824274090069e-10</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>5.695222324806837e-10</v>
+        <v>5.690194032122405e-10</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>5.699857424166466e-10</v>
+        <v>5.721163677833033e-10</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>5.387400422423611e-10</v>
+        <v>5.417426363274501e-10</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>4.941321436565693e-10</v>
+        <v>4.97354717560946e-10</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>3.011680691179546e-10</v>
+        <v>3.01740381557495e-10</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>1.857359631675575e-10</v>
+        <v>1.872991550556356e-10</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>1.612120265130458e-10</v>
+        <v>1.612943318822047e-10</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>1.725344892306507e-10</v>
+        <v>1.73946543107338e-10</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>2.365245770080708e-10</v>
+        <v>2.365758111532557e-10</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>2.596808721782389e-10</v>
+        <v>2.591164652830453e-10</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>3.822082602555421e-10</v>
+        <v>3.803119091772333e-10</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>4.930534405179109e-10</v>
+        <v>5.011655367536419e-10</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>5.089159816100973e-10</v>
+        <v>5.096671556874991e-10</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>4.796057419820086e-10</v>
+        <v>4.801859553993091e-10</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>4.229632983131974e-10</v>
+        <v>4.224621643392699e-10</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>3.710983503949921e-10</v>
+        <v>3.696056557926134e-10</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>3.11567382461918e-10</v>
+        <v>3.160901030484888e-10</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>2.845370229030086e-10</v>
+        <v>2.821373244780865e-10</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>2.817320434702494e-10</v>
+        <v>2.761787000455548e-10</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>2.672062486177032e-10</v>
+        <v>2.456660200067201e-10</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>2.650177144147419e-10</v>
+        <v>2.633032217289554e-10</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>2.540572935011222e-10</v>
+        <v>2.548506829431008e-10</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>2.756246668970935e-10</v>
+        <v>2.657203643065065e-10</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>3.12912359145573e-10</v>
+        <v>3.098510234318782e-10</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>3.476573122776098e-10</v>
+        <v>3.460660519579851e-10</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>3.871971686174996e-10</v>
+        <v>3.855318966858035e-10</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>4.404963928272212e-10</v>
+        <v>4.395194645990772e-10</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>4.790102215580789e-10</v>
+        <v>4.798242297035052e-10</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>4.626826813286149e-10</v>
+        <v>4.614290501686444e-10</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>4.126310357565533e-10</v>
+        <v>4.139384519545468e-10</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>4.054805233406679e-10</v>
+        <v>4.071788824929785e-10</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>3.56880851219296e-10</v>
+        <v>3.593529892225278e-10</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>3.41087241049207e-10</v>
+        <v>3.419797728986861e-10</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>3.325646545363248e-10</v>
+        <v>3.338876548685885e-10</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>4.161440736999023e-10</v>
+        <v>4.184117190196556e-10</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>3.641412287997132e-10</v>
+        <v>3.649884881477365e-10</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>3.793964629536455e-10</v>
+        <v>3.814154687850284e-10</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>3.435763473676555e-10</v>
+        <v>3.450003131230183e-10</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>3.208603399633391e-10</v>
+        <v>3.222670349386397e-10</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>3.037960047505338e-10</v>
+        <v>3.040228868359856e-10</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>2.801751335167983e-10</v>
+        <v>2.821465365095984e-10</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>2.608947246704679e-10</v>
+        <v>2.620705293142691e-10</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>2.654560726873414e-10</v>
+        <v>2.671267588185565e-10</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>1.362138105395509e-10</v>
+        <v>1.369922592040787e-10</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>5.585296582577778e-11</v>
+        <v>5.751271570951136e-11</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>3.354141129683245e-11</v>
+        <v>3.426698837659216e-11</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>4.826207054829699e-11</v>
+        <v>4.908877688653013e-11</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>3.003131389254333e-11</v>
+        <v>3.099458396630505e-11</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>2.396934008293049e-11</v>
+        <v>2.489699783402235e-11</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>2.000659785444846e-11</v>
+        <v>2.071216858241955e-11</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>2.00782158024204e-11</v>
+        <v>1.837744870412724e-11</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>2.882090702108341e-11</v>
+        <v>2.904484975634591e-11</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>5.164578431456823e-11</v>
+        <v>5.130400237736057e-11</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>5.610477680899545e-11</v>
+        <v>5.666066285195069e-11</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>4.744338189194709e-11</v>
+        <v>4.823416289938249e-11</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>4.184931561325514e-11</v>
+        <v>4.270007570999292e-11</v>
       </c>
     </row>
   </sheetData>
